--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Design &amp; Architecture" sheetId="10" r:id="rId4"/>
     <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId5"/>
     <sheet name="Programming Languages" sheetId="12" r:id="rId6"/>
-    <sheet name="Scripting Languages" sheetId="13" r:id="rId7"/>
+    <sheet name="Python" sheetId="13" r:id="rId7"/>
     <sheet name="DevOps" sheetId="14" r:id="rId8"/>
     <sheet name="Web Technologies" sheetId="16" r:id="rId9"/>
     <sheet name="IoT" sheetId="17" r:id="rId10"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="211">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2196,9 +2196,6 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>Web Server</t>
-  </si>
-  <si>
     <t>Basics of HTTP</t>
   </si>
   <si>
@@ -2247,12 +2244,6 @@
     <t>C/C++</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Shell Script</t>
-  </si>
-  <si>
     <t>Problem Solving - DSA</t>
   </si>
   <si>
@@ -2263,6 +2254,27 @@
   </si>
   <si>
     <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Web/HTTP Server</t>
+  </si>
+  <si>
+    <t>PyPI</t>
+  </si>
+  <si>
+    <t>Python Package Index</t>
+  </si>
+  <si>
+    <t>PIP</t>
+  </si>
+  <si>
+    <t>Python Virtual Enviornment</t>
+  </si>
+  <si>
+    <t>Tornado Python Framework</t>
+  </si>
+  <si>
+    <t>https://ruslanspivak.com/lsbaws-part1/</t>
   </si>
 </sst>
 </file>
@@ -2569,7 +2581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2885,6 +2897,162 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2912,162 +3080,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3124,6 +3136,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3496,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -3556,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3568,7 +3589,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -3592,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6"/>
@@ -3604,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="6"/>
@@ -3709,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="6"/>
@@ -3721,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="13"/>
@@ -3733,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
@@ -3745,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="13"/>
@@ -3757,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="6"/>
@@ -3769,7 +3790,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="6"/>
@@ -3912,13 +3933,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="115" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="55" t="s">
@@ -3939,9 +3960,9 @@
       <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="140"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="55" t="s">
         <v>38</v>
       </c>
@@ -3958,9 +3979,9 @@
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="140"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="55" t="s">
         <v>45</v>
       </c>
@@ -3975,9 +3996,9 @@
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="140"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="55" t="s">
         <v>46</v>
       </c>
@@ -3992,9 +4013,9 @@
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="140"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="55" t="s">
         <v>47</v>
       </c>
@@ -4009,9 +4030,9 @@
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="141"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="55" t="s">
         <v>48</v>
       </c>
@@ -4039,13 +4060,13 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="65" t="s">
         <v>40</v>
       </c>
@@ -4060,9 +4081,9 @@
       <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="155"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="143"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="65" t="s">
         <v>41</v>
       </c>
@@ -4077,9 +4098,9 @@
       <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="143"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="65" t="s">
         <v>43</v>
       </c>
@@ -4094,9 +4115,9 @@
       <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="155"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="143"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="65" t="s">
         <v>49</v>
       </c>
@@ -4111,9 +4132,9 @@
       <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="144"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="65" t="s">
         <v>50</v>
       </c>
@@ -4141,13 +4162,13 @@
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="145"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="76" t="s">
         <v>51</v>
       </c>
@@ -4162,9 +4183,9 @@
       <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="161"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="76" t="s">
         <v>52</v>
       </c>
@@ -4179,9 +4200,9 @@
       <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="161"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="76" t="s">
         <v>53</v>
       </c>
@@ -4196,9 +4217,9 @@
       <c r="K19" s="78"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="161"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="146"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="76" t="s">
         <v>55</v>
       </c>
@@ -4213,9 +4234,9 @@
       <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="161"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="146"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="76" t="s">
         <v>58</v>
       </c>
@@ -4230,9 +4251,9 @@
       <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="146"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="76" t="s">
         <v>56</v>
       </c>
@@ -4247,9 +4268,9 @@
       <c r="K22" s="78"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="146"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="76" t="s">
         <v>54</v>
       </c>
@@ -4264,9 +4285,9 @@
       <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="162"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="147"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="76" t="s">
         <v>57</v>
       </c>
@@ -4294,13 +4315,13 @@
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="148"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="59" t="s">
         <v>38</v>
       </c>
@@ -4315,9 +4336,9 @@
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="149"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="59" t="s">
         <v>59</v>
       </c>
@@ -4332,9 +4353,9 @@
       <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="149"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="59" t="s">
         <v>60</v>
       </c>
@@ -4357,9 +4378,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="149"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="59" t="s">
         <v>61</v>
       </c>
@@ -4374,9 +4395,9 @@
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="149"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="59" t="s">
         <v>62</v>
       </c>
@@ -4391,9 +4412,9 @@
       <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="149"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="59" t="s">
         <v>63</v>
       </c>
@@ -4408,9 +4429,9 @@
       <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="149"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="59" t="s">
         <v>64</v>
       </c>
@@ -4425,9 +4446,9 @@
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="59" t="s">
         <v>65</v>
       </c>
@@ -4442,9 +4463,9 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="150"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="59" t="s">
         <v>66</v>
       </c>
@@ -4506,13 +4527,13 @@
       <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="133"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="83" t="s">
         <v>69</v>
       </c>
@@ -4527,9 +4548,9 @@
       <c r="K38" s="84"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="134"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="83" t="s">
         <v>70</v>
       </c>
@@ -4544,9 +4565,9 @@
       <c r="K39" s="84"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="134"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="83" t="s">
         <v>71</v>
       </c>
@@ -4561,9 +4582,9 @@
       <c r="K40" s="84"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="137"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="83" t="s">
         <v>72</v>
       </c>
@@ -4578,9 +4599,9 @@
       <c r="K41" s="84"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="137"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="134"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="83" t="s">
         <v>74</v>
       </c>
@@ -4595,9 +4616,9 @@
       <c r="K42" s="84"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="137"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="134"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="83" t="s">
         <v>75</v>
       </c>
@@ -4612,9 +4633,9 @@
       <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="137"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="134"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="83" t="s">
         <v>76</v>
       </c>
@@ -4629,9 +4650,9 @@
       <c r="K44" s="84"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="135"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="83" t="s">
         <v>77</v>
       </c>
@@ -4659,13 +4680,13 @@
       <c r="K46" s="53"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="118" t="s">
+      <c r="A47" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="121"/>
+      <c r="C47" s="149"/>
       <c r="D47" s="89" t="s">
         <v>78</v>
       </c>
@@ -4684,9 +4705,9 @@
       <c r="K47" s="90"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="119"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="122"/>
+      <c r="A48" s="147"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="89" t="s">
         <v>79</v>
       </c>
@@ -4701,9 +4722,9 @@
       <c r="K48" s="90"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="119"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="122"/>
+      <c r="A49" s="147"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="150"/>
       <c r="D49" s="89" t="s">
         <v>80</v>
       </c>
@@ -4718,9 +4739,9 @@
       <c r="K49" s="90"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="120"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="123"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="151"/>
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
       <c r="F50" s="90"/>
@@ -4744,13 +4765,13 @@
       <c r="K51" s="53"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="127" t="s">
+      <c r="A52" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="127" t="s">
+      <c r="B52" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="130"/>
+      <c r="C52" s="158"/>
       <c r="D52" s="86" t="s">
         <v>85</v>
       </c>
@@ -4765,9 +4786,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="128"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="131"/>
+      <c r="A53" s="156"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="159"/>
       <c r="D53" s="86" t="s">
         <v>86</v>
       </c>
@@ -4782,9 +4803,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="128"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="131"/>
+      <c r="A54" s="156"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="159"/>
       <c r="D54" s="86" t="s">
         <v>87</v>
       </c>
@@ -4799,9 +4820,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="129"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="132"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="160"/>
       <c r="D55" s="86" t="s">
         <v>88</v>
       </c>
@@ -4829,13 +4850,13 @@
       <c r="K56" s="53"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="124"/>
+      <c r="C57" s="152"/>
       <c r="D57" s="69" t="s">
         <v>81</v>
       </c>
@@ -4850,9 +4871,9 @@
       <c r="K57" s="70"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="125"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="153"/>
       <c r="D58" s="69" t="s">
         <v>84</v>
       </c>
@@ -4867,9 +4888,9 @@
       <c r="K58" s="70"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="125"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="153"/>
       <c r="D59" s="69" t="s">
         <v>83</v>
       </c>
@@ -4884,9 +4905,9 @@
       <c r="K59" s="70"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="126"/>
+      <c r="A60" s="169"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="154"/>
       <c r="D60" s="69" t="s">
         <v>82</v>
       </c>
@@ -4914,13 +4935,13 @@
       <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="109" t="s">
+      <c r="B62" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="112"/>
+      <c r="C62" s="164"/>
       <c r="D62" s="93" t="s">
         <v>163</v>
       </c>
@@ -4935,9 +4956,9 @@
       <c r="K62" s="94"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="110"/>
-      <c r="B63" s="110"/>
-      <c r="C63" s="113"/>
+      <c r="A63" s="162"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="165"/>
       <c r="D63" s="93" t="s">
         <v>164</v>
       </c>
@@ -4952,9 +4973,9 @@
       <c r="K63" s="94"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="110"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="113"/>
+      <c r="A64" s="162"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="96"/>
       <c r="E64" s="94"/>
       <c r="F64" s="94"/>
@@ -4967,9 +4988,9 @@
       <c r="K64" s="94"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="114"/>
+      <c r="A65" s="163"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="166"/>
       <c r="D65" s="96"/>
       <c r="E65" s="94"/>
       <c r="F65" s="94"/>
@@ -4984,6 +5005,18 @@
   </sheetData>
   <autoFilter ref="J3:J60"/>
   <mergeCells count="27">
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="A38:A45"/>
@@ -4999,18 +5032,6 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" r:id="rId1" display="http://interactivepython.org/runestone/static/pythonds/Trees/PriorityQueueswithBinaryHeaps.html"/>
@@ -5497,7 +5518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5665,7 +5686,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6055,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
@@ -6067,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -6079,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -6197,7 +6218,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6226,10 +6247,12 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="189" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6238,8 +6261,8 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>202</v>
+      <c r="B3" s="190" t="s">
+        <v>207</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -6250,7 +6273,9 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
@@ -6533,16 +6558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.88671875" style="15" customWidth="1"/>
     <col min="6" max="6" width="76.6640625" style="15" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="15"/>
@@ -6601,10 +6626,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="191" t="s">
+        <v>210</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
@@ -6613,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="6"/>
@@ -6625,7 +6654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="6"/>
@@ -6637,7 +6666,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="6"/>
@@ -6649,7 +6678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="6"/>
@@ -6661,7 +6690,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="6"/>
@@ -6673,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="6"/>
@@ -6711,7 +6740,10 @@
       <c r="F14" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="4" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId5"/>
     <sheet name="Programming Languages" sheetId="12" r:id="rId6"/>
     <sheet name="Python" sheetId="13" r:id="rId7"/>
-    <sheet name="DevOps" sheetId="14" r:id="rId8"/>
+    <sheet name="IoT" sheetId="17" r:id="rId8"/>
     <sheet name="Web Technologies" sheetId="16" r:id="rId9"/>
-    <sheet name="IoT" sheetId="17" r:id="rId10"/>
+    <sheet name="DevOps" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Structures'!$J$3:$J$60</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="233">
   <si>
     <t>Sl.No</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>Topics</t>
-  </si>
-  <si>
-    <t>Programming Languages</t>
-  </si>
-  <si>
-    <t>Scripting Languages</t>
   </si>
   <si>
     <t>Design and Architecture</t>
@@ -329,9 +323,6 @@
     <t>Time &amp; Space Complexity</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
     <t>Shortest Paths</t>
   </si>
   <si>
@@ -2202,18 +2193,6 @@
     <t>Security</t>
   </si>
   <si>
-    <t>Amazon Web Services (AWS)</t>
-  </si>
-  <si>
-    <t>Go Lang</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>Node JS/NPM</t>
-  </si>
-  <si>
     <t>IoT</t>
   </si>
   <si>
@@ -2232,9 +2211,6 @@
     <t>Samsung SmartThings</t>
   </si>
   <si>
-    <t>Rasberry PI</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -2247,9 +2223,6 @@
     <t>Problem Solving - DSA</t>
   </si>
   <si>
-    <t>Web Technolgies/Cloud</t>
-  </si>
-  <si>
     <t>Android App Development</t>
   </si>
   <si>
@@ -2275,13 +2248,414 @@
   </si>
   <si>
     <t>https://ruslanspivak.com/lsbaws-part1/</t>
+  </si>
+  <si>
+    <t>http://mosquitto.org/
+https://www.digitalocean.com/community/tutorials/how-to-install-and-secure-the-mosquitto-mqtt-messaging-broker-on-ubuntu-16-04</t>
+  </si>
+  <si>
+    <t>IoT/AWS IoT/CSSDK</t>
+  </si>
+  <si>
+    <t>Scripting Languages - Python, Shell Scripts</t>
+  </si>
+  <si>
+    <t>Basics of AWS Cloud</t>
+  </si>
+  <si>
+    <t>Web Technolgies</t>
+  </si>
+  <si>
+    <t>16)</t>
+  </si>
+  <si>
+    <t>17)</t>
+  </si>
+  <si>
+    <t>Programming Languages - Java, Go Lang, Node JS, C#, C/C++</t>
+  </si>
+  <si>
+    <t>Micro Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevOps - CI, Docker/AWS Docker, AWS CLI, Build Systems, </t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>https://www.arduino.cc/</t>
+  </si>
+  <si>
+    <t>Sub-Topics</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MQTT
+https://www.baldengineer.com/mqtt-introduction.html
+https://www.hivemq.com/blog/how-to-get-started-with-mqtt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MQTT (Message Queue Telemetry Transport) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is an ISO standard </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">publish-subscribe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>based messaging protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>2) MQTT protocol is primararly used by Internet of Things (IoT) devices to communicate with each other</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3) MQTT works on top of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>TCP/IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> protocol and it's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>bandwidth-efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">uses little battery power
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Publish/Subscribe is event-driven and enables messages to be pushed to clients. The central communication point is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MQTT broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, it is in charge of dispatching all messages between the senders and the rightful receivers in contrast to HTTP protocal where clients have to pull the information it needs it.
+5) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Each MQTT client has a permanently open TCP connection to the broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. If this connection is interrupted by any circumstances, the MQTT broker can buffer all messages and send them to the client when it is back online
+6) Each client that wants to receive messages subscribes to a certain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and the broker delivers all messages with the matching topic to the client
+7) The topic is the routing information for the broker
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Eclipse Paho</t>
+  </si>
+  <si>
+    <t>MQTT Protocol Implementations</t>
+  </si>
+  <si>
+    <t>Eclipse Mosquitto</t>
+  </si>
+  <si>
+    <t>0)</t>
+  </si>
+  <si>
+    <t>https://iot.eclipse.org/</t>
+  </si>
+  <si>
+    <t>1) Provides the MQTT client library to communicate with MQTT broker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Eclipse Mosquitto is a command line tool implementation of the MQTT protocol provides all the three components of the MQTT i.e. Publisher, Broker and Subscriber
+2) Ability to connect to public broker like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>-h broker.hivemq.com -p 1883</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Host:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> broker.hivemq.com </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Port:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>1883</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/paho/</t>
+  </si>
+  <si>
+    <t>HiveMQ Broker</t>
+  </si>
+  <si>
+    <t>Mosquitto Broker</t>
+  </si>
+  <si>
+    <t>https://test.mosquitto.org/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Host: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">test.mosquitto.org/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Port: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>1883</t>
+    </r>
+  </si>
+  <si>
+    <t>PubliC MQTT Brokers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2435,6 +2809,13 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2581,7 +2962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2897,6 +3278,87 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3008,78 +3470,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3137,13 +3527,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3240,6 +3651,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3275,6 +3703,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3451,16 +3896,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" style="11" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="11" customWidth="1"/>
@@ -3476,16 +3921,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -3493,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3505,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3517,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -3529,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -3541,7 +3986,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3549,11 +3994,11 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3561,11 +4006,11 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -3577,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3589,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -3601,10 +4046,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -3613,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6"/>
@@ -3622,10 +4067,10 @@
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="6"/>
@@ -3634,10 +4079,10 @@
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="6"/>
@@ -3646,10 +4091,10 @@
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="6"/>
@@ -3658,10 +4103,10 @@
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="6"/>
@@ -3670,23 +4115,35 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3699,7 +4156,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3729,9 +4186,7 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="16"/>
       <c r="D2" s="6"/>
       <c r="E2" s="8"/>
@@ -3741,9 +4196,7 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="16"/>
       <c r="D3" s="13"/>
       <c r="E3" s="8"/>
@@ -3753,9 +4206,7 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
       <c r="E4" s="8"/>
@@ -3765,9 +4216,7 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="16"/>
       <c r="D5" s="13"/>
       <c r="E5" s="8"/>
@@ -3777,9 +4226,7 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="16"/>
       <c r="D6" s="6"/>
       <c r="E6" s="8"/>
@@ -3789,9 +4236,7 @@
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="16"/>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
@@ -3902,88 +4347,88 @@
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>94</v>
+      <c r="B4" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
       <c r="I4" s="97"/>
       <c r="J4" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="97"/>
       <c r="J5" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="116"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -3991,16 +4436,16 @@
       <c r="H6" s="57"/>
       <c r="I6" s="97"/>
       <c r="J6" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="116"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -4008,16 +4453,16 @@
       <c r="H7" s="57"/>
       <c r="I7" s="97"/>
       <c r="J7" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -4025,16 +4470,16 @@
       <c r="H8" s="57"/>
       <c r="I8" s="97"/>
       <c r="J8" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
@@ -4042,7 +4487,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="97"/>
       <c r="J9" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9" s="56"/>
     </row>
@@ -4060,15 +4505,15 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="118"/>
+      <c r="B11" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="145"/>
       <c r="D11" s="65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="67"/>
@@ -4076,16 +4521,16 @@
       <c r="H11" s="68"/>
       <c r="I11" s="99"/>
       <c r="J11" s="68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="119"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
@@ -4093,16 +4538,16 @@
       <c r="H12" s="68"/>
       <c r="I12" s="99"/>
       <c r="J12" s="68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" s="67"/>
@@ -4110,16 +4555,16 @@
       <c r="H13" s="68"/>
       <c r="I13" s="99"/>
       <c r="J13" s="68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="119"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="67"/>
@@ -4127,16 +4572,16 @@
       <c r="H14" s="68"/>
       <c r="I14" s="99"/>
       <c r="J14" s="68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="120"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="67"/>
@@ -4144,7 +4589,7 @@
       <c r="H15" s="68"/>
       <c r="I15" s="99"/>
       <c r="J15" s="68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" s="67"/>
     </row>
@@ -4162,15 +4607,15 @@
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="139" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="121"/>
+      <c r="B17" s="166" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="148"/>
       <c r="D17" s="76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="78"/>
@@ -4178,16 +4623,16 @@
       <c r="H17" s="79"/>
       <c r="I17" s="100"/>
       <c r="J17" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="137"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="77"/>
       <c r="F18" s="78"/>
@@ -4195,16 +4640,16 @@
       <c r="H18" s="79"/>
       <c r="I18" s="100"/>
       <c r="J18" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="137"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="122"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="78"/>
@@ -4212,16 +4657,16 @@
       <c r="H19" s="79"/>
       <c r="I19" s="100"/>
       <c r="J19" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" s="78"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="137"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="122"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="78"/>
@@ -4229,16 +4674,16 @@
       <c r="H20" s="79"/>
       <c r="I20" s="100"/>
       <c r="J20" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="137"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="122"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="78"/>
@@ -4246,16 +4691,16 @@
       <c r="H21" s="79"/>
       <c r="I21" s="100"/>
       <c r="J21" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="137"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="122"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="149"/>
       <c r="D22" s="76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="77"/>
       <c r="F22" s="78"/>
@@ -4263,16 +4708,16 @@
       <c r="H22" s="79"/>
       <c r="I22" s="100"/>
       <c r="J22" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22" s="78"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="137"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="122"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="77"/>
       <c r="F23" s="78"/>
@@ -4280,16 +4725,16 @@
       <c r="H23" s="79"/>
       <c r="I23" s="100"/>
       <c r="J23" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="123"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="150"/>
       <c r="D24" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="77"/>
       <c r="F24" s="78"/>
@@ -4297,7 +4742,7 @@
       <c r="H24" s="79"/>
       <c r="I24" s="100"/>
       <c r="J24" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K24" s="78"/>
     </row>
@@ -4315,15 +4760,15 @@
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="124"/>
+      <c r="B26" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="151"/>
       <c r="D26" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="60"/>
       <c r="F26" s="61"/>
@@ -4331,16 +4776,16 @@
       <c r="H26" s="62"/>
       <c r="I26" s="101"/>
       <c r="J26" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="125"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="60"/>
       <c r="F27" s="61"/>
@@ -4348,41 +4793,41 @@
       <c r="H27" s="62"/>
       <c r="I27" s="101"/>
       <c r="J27" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="125"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="152"/>
       <c r="D28" s="59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="125"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="61"/>
@@ -4390,16 +4835,16 @@
       <c r="H29" s="62"/>
       <c r="I29" s="101"/>
       <c r="J29" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="128"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="125"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="152"/>
       <c r="D30" s="59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="61"/>
@@ -4407,16 +4852,16 @@
       <c r="H30" s="62"/>
       <c r="I30" s="101"/>
       <c r="J30" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="125"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="61"/>
@@ -4424,16 +4869,16 @@
       <c r="H31" s="62"/>
       <c r="I31" s="101"/>
       <c r="J31" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="128"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="125"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="60"/>
       <c r="F32" s="61"/>
@@ -4441,16 +4886,16 @@
       <c r="H32" s="62"/>
       <c r="I32" s="101"/>
       <c r="J32" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="125"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="61"/>
@@ -4458,16 +4903,16 @@
       <c r="H33" s="62"/>
       <c r="I33" s="101"/>
       <c r="J33" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="126"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="153"/>
       <c r="D34" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="60"/>
       <c r="F34" s="61"/>
@@ -4475,7 +4920,7 @@
       <c r="H34" s="62"/>
       <c r="I34" s="101"/>
       <c r="J34" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K34" s="61"/>
     </row>
@@ -4497,11 +4942,11 @@
         <v>5</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="73"/>
       <c r="F36" s="74"/>
@@ -4509,7 +4954,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="102"/>
       <c r="J36" s="75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K36" s="74"/>
     </row>
@@ -4527,15 +4972,15 @@
       <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="109"/>
+      <c r="B38" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="136"/>
       <c r="D38" s="83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
@@ -4543,16 +4988,16 @@
       <c r="H38" s="85"/>
       <c r="I38" s="103"/>
       <c r="J38" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K38" s="84"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="110"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
@@ -4560,16 +5005,16 @@
       <c r="H39" s="85"/>
       <c r="I39" s="103"/>
       <c r="J39" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K39" s="84"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="137"/>
       <c r="D40" s="83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
@@ -4577,16 +5022,16 @@
       <c r="H40" s="85"/>
       <c r="I40" s="103"/>
       <c r="J40" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K40" s="84"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
@@ -4594,16 +5039,16 @@
       <c r="H41" s="85"/>
       <c r="I41" s="103"/>
       <c r="J41" s="85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K41" s="84"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="110"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
@@ -4611,16 +5056,16 @@
       <c r="H42" s="85"/>
       <c r="I42" s="103"/>
       <c r="J42" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K42" s="84"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="110"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
@@ -4628,16 +5073,16 @@
       <c r="H43" s="85"/>
       <c r="I43" s="103"/>
       <c r="J43" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="110"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
@@ -4645,16 +5090,16 @@
       <c r="H44" s="85"/>
       <c r="I44" s="103"/>
       <c r="J44" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K44" s="84"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="111"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
@@ -4662,7 +5107,7 @@
       <c r="H45" s="85"/>
       <c r="I45" s="103"/>
       <c r="J45" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K45" s="84"/>
     </row>
@@ -4680,36 +5125,36 @@
       <c r="K46" s="53"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="149"/>
+      <c r="B47" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="124"/>
       <c r="D47" s="89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47" s="90"/>
       <c r="F47" s="91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
       <c r="I47" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J47" s="92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K47" s="90"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="147"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="150"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="90"/>
       <c r="F48" s="90"/>
@@ -4717,16 +5162,16 @@
       <c r="H48" s="92"/>
       <c r="I48" s="104"/>
       <c r="J48" s="92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K48" s="90"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="150"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49" s="90"/>
       <c r="F49" s="90"/>
@@ -4734,14 +5179,14 @@
       <c r="H49" s="92"/>
       <c r="I49" s="104"/>
       <c r="J49" s="92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K49" s="90"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="148"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="151"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
       <c r="F50" s="90"/>
@@ -4765,15 +5210,15 @@
       <c r="K51" s="53"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="158"/>
+      <c r="B52" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="133"/>
       <c r="D52" s="86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -4781,16 +5226,16 @@
       <c r="H52" s="88"/>
       <c r="I52" s="105"/>
       <c r="J52" s="88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="156"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="159"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E53" s="87"/>
       <c r="F53" s="87"/>
@@ -4798,16 +5243,16 @@
       <c r="H53" s="88"/>
       <c r="I53" s="105"/>
       <c r="J53" s="88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="159"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" s="87"/>
       <c r="F54" s="87"/>
@@ -4815,16 +5260,16 @@
       <c r="H54" s="88"/>
       <c r="I54" s="105"/>
       <c r="J54" s="88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="157"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="160"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="135"/>
       <c r="D55" s="86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E55" s="87"/>
       <c r="F55" s="87"/>
@@ -4832,7 +5277,7 @@
       <c r="H55" s="88"/>
       <c r="I55" s="105"/>
       <c r="J55" s="88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K55" s="87"/>
     </row>
@@ -4850,15 +5295,15 @@
       <c r="K56" s="53"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="167" t="s">
+      <c r="A57" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="152"/>
+      <c r="B57" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="127"/>
       <c r="D57" s="69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="70"/>
       <c r="F57" s="70"/>
@@ -4866,16 +5311,16 @@
       <c r="H57" s="71"/>
       <c r="I57" s="106"/>
       <c r="J57" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K57" s="70"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="168"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="153"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="128"/>
       <c r="D58" s="69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" s="70"/>
       <c r="F58" s="70"/>
@@ -4883,16 +5328,16 @@
       <c r="H58" s="71"/>
       <c r="I58" s="106"/>
       <c r="J58" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K58" s="70"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="168"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="153"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E59" s="70"/>
       <c r="F59" s="70"/>
@@ -4900,16 +5345,16 @@
       <c r="H59" s="71"/>
       <c r="I59" s="106"/>
       <c r="J59" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K59" s="70"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="169"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="154"/>
+      <c r="A60" s="120"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E60" s="70"/>
       <c r="F60" s="70"/>
@@ -4917,7 +5362,7 @@
       <c r="H60" s="71"/>
       <c r="I60" s="106"/>
       <c r="J60" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K60" s="70"/>
     </row>
@@ -4935,15 +5380,15 @@
       <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="161" t="s">
+      <c r="A62" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="161" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="164"/>
+      <c r="B62" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="115"/>
       <c r="D62" s="93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E62" s="94"/>
       <c r="F62" s="94"/>
@@ -4951,16 +5396,16 @@
       <c r="H62" s="95"/>
       <c r="I62" s="107"/>
       <c r="J62" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K62" s="94"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="162"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="165"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="116"/>
       <c r="D63" s="93" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E63" s="94"/>
       <c r="F63" s="94"/>
@@ -4968,14 +5413,14 @@
       <c r="H63" s="95"/>
       <c r="I63" s="107"/>
       <c r="J63" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K63" s="94"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="162"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="165"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="116"/>
       <c r="D64" s="96"/>
       <c r="E64" s="94"/>
       <c r="F64" s="94"/>
@@ -4983,14 +5428,14 @@
       <c r="H64" s="95"/>
       <c r="I64" s="107"/>
       <c r="J64" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K64" s="94"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="163"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="166"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="96"/>
       <c r="E65" s="94"/>
       <c r="F65" s="94"/>
@@ -4998,25 +5443,13 @@
       <c r="H65" s="95"/>
       <c r="I65" s="107"/>
       <c r="J65" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K65" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="J3:J60"/>
   <mergeCells count="27">
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="A38:A45"/>
@@ -5032,6 +5465,18 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" r:id="rId1" display="http://interactivepython.org/runestone/static/pythonds/Trees/PriorityQueueswithBinaryHeaps.html"/>
@@ -5070,209 +5515,209 @@
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="170" t="s">
-        <v>103</v>
+      <c r="B2" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="176"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="170" t="s">
-        <v>99</v>
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="173" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F4" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="42" t="s">
-        <v>159</v>
-      </c>
       <c r="E6" s="50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="178"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="178"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="178"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="181"/>
       <c r="D9" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="178"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="108" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="176"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="174"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -5285,61 +5730,61 @@
       <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="173" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="170" t="s">
-        <v>103</v>
+      <c r="B16" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="173" t="s">
+        <v>100</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="171"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="171"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -5352,111 +5797,111 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="173" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="170"/>
+      <c r="B21" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="173"/>
       <c r="D21" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="171"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="174"/>
       <c r="D25" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="171"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="174"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="171"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="172"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5467,7 +5912,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5475,16 +5920,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -5708,46 +6153,46 @@
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180" t="s">
-        <v>144</v>
+      <c r="B2" s="183" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
-      <c r="B3" s="181"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="184"/>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="188"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="185"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -5758,46 +6203,46 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="184"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="187"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="187"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="184"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="184"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
-      <c r="B12" s="182"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -5812,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5825,10 +6270,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5844,7 +6289,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5856,46 +6301,46 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="186" t="s">
-        <v>132</v>
+      <c r="B20" s="189" t="s">
+        <v>129</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="187"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="187"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="187"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="188"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="184"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="184"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -5910,7 +6355,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5922,70 +6367,70 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="183" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="187"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="187"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="187"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="8" t="s">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="187"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="8" t="s">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="187"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="184"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="8" t="s">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="187"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="8" t="s">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="188"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="181"/>
-      <c r="C34" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="185"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -6076,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
@@ -6088,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -6100,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -6247,11 +6692,11 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="189" t="s">
-        <v>205</v>
+      <c r="B2" s="109" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -6261,8 +6706,8 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="190" t="s">
-        <v>207</v>
+      <c r="B3" s="110" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -6274,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -6389,20 +6834,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="99.5546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="38.88671875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="71.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
@@ -6413,153 +6858,285 @@
       <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="198" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="197" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="193"/>
+      <c r="F3" s="197" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="183" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="192" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="193"/>
+      <c r="F4" s="197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="199"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="193"/>
+      <c r="F5" s="196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="197"/>
+    </row>
+    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B7" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="193"/>
+      <c r="F7" s="197"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="193"/>
+      <c r="F8" s="197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="197"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="192"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="192"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="192"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="192"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B14" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="192"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2" display="http://mosquitto.org/"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6590,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="6"/>
@@ -6602,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="13"/>
@@ -6614,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
@@ -6626,13 +7203,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="191" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>201</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -6642,7 +7219,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="6"/>
@@ -6654,7 +7231,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="6"/>
@@ -6666,7 +7243,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="6"/>
@@ -6675,11 +7252,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="16"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
@@ -6687,11 +7262,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="16"/>
       <c r="D10" s="6"/>
       <c r="E10" s="8"/>
@@ -6699,11 +7272,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
@@ -6711,33 +7282,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="4" r:id="rId1"/>
@@ -12,24 +12,25 @@
     <sheet name="Algorithms" sheetId="8" r:id="rId3"/>
     <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId4"/>
     <sheet name="Design &amp; Architecture" sheetId="10" r:id="rId5"/>
-    <sheet name="Programming Languages" sheetId="12" r:id="rId6"/>
-    <sheet name="Scripting Languages" sheetId="13" r:id="rId7"/>
-    <sheet name="DevOps" sheetId="14" r:id="rId8"/>
-    <sheet name="IoT" sheetId="17" r:id="rId9"/>
-    <sheet name="Web Technologies" sheetId="16" r:id="rId10"/>
-    <sheet name="RFID System" sheetId="19" r:id="rId11"/>
-    <sheet name="Security" sheetId="20" r:id="rId12"/>
+    <sheet name="Security" sheetId="20" r:id="rId6"/>
+    <sheet name="Programming Languages" sheetId="12" r:id="rId7"/>
+    <sheet name="Scripting Languages" sheetId="13" r:id="rId8"/>
+    <sheet name="DevOps" sheetId="14" r:id="rId9"/>
+    <sheet name="IoT" sheetId="17" r:id="rId10"/>
+    <sheet name="Web Technologies" sheetId="16" r:id="rId11"/>
+    <sheet name="RFID System" sheetId="19" r:id="rId12"/>
     <sheet name="Retail" sheetId="21" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Structures'!$J$3:$J$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="309">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2689,9 +2690,6 @@
     <t>HTTPS - Secure Connection</t>
   </si>
   <si>
-    <t>* JW token is generated by the server</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">* </t>
     </r>
@@ -3142,11 +3140,6 @@
       <t>data as data is encrypted.
 * HTTPS does not mean your data is secure, it just means your connection is secure.</t>
     </r>
-  </si>
-  <si>
-    <t>* Server authenticates the client by using client provided credentials such as User Name &amp; Password or JW Token 
-* Always use HTTPS connection (as credentials will be encrypted)
-* Generally Webscoket connection uses User Name and Password as credentials where as RESTful connection uses JW token.</t>
   </si>
   <si>
     <t>SSH</t>
@@ -3530,13 +3523,587 @@
   </si>
   <si>
     <t>https://www.arduino.cc/</t>
+  </si>
+  <si>
+    <t>Hash Functions - MD5, SHA1, and SHA2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Server authenticates the client by using client provided credentials such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Name &amp; Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> JW Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Always use HTTPS connection (as credentials will be encrypted).
+* Generally Webscoket connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Name and Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> as credentials where as RESTful connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>JW token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mutable and Immutable</t>
+  </si>
+  <si>
+    <t>Secure User Passwords</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How To Protect User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+At server side, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can be secured/protected by using following cryptographic hashing functions/techniques,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Passwords are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Salted Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is appended/prepended to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and it's unique to per user-per password
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">will be stored along with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hash</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">in a user account's database
+    * Don't reuse the Salt and must be at least the size of the hash
+    * Relatively secure (not 100% secure) and can be cracked using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables or Rainbow Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> techniques however slow to crack.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How Hashes are Cracked</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reverse Lookup Tables:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rainbow Tables:</t>
+    </r>
+  </si>
+  <si>
+    <t>* JW token is generated by the server 
+* Uses HS256 or RS256 for signing the token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3690,6 +4257,21 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -4161,6 +4743,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4413,6 +5013,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4421,30 +5027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5008,6 +5590,305 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="191" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="204"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="191" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2" display="http://mosquitto.org/"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5202,7 +6083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -5242,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -5252,10 +6133,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="206" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -5268,8 +6149,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="11" t="s">
         <v>244</v>
       </c>
@@ -5280,8 +6161,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="190"/>
-      <c r="B5" s="190"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="11" t="s">
         <v>245</v>
       </c>
@@ -5292,10 +6173,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="207" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -5308,8 +6189,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="190"/>
-      <c r="B7" s="200"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="11" t="s">
         <v>252</v>
       </c>
@@ -5417,213 +6298,6 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="88" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="110" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5835,13 +6509,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="150" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -5862,9 +6536,9 @@
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="145"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="50" t="s">
         <v>38</v>
       </c>
@@ -5881,9 +6555,9 @@
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="145"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -5898,9 +6572,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="145"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -5915,9 +6589,9 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="173"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="145"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -5932,9 +6606,9 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="146"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
@@ -5962,13 +6636,13 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
@@ -5983,9 +6657,9 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="148"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="60" t="s">
         <v>41</v>
       </c>
@@ -6000,9 +6674,9 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
@@ -6017,9 +6691,9 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="160"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="148"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
@@ -6034,9 +6708,9 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="161"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="149"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
@@ -6064,13 +6738,13 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="150"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="71" t="s">
         <v>51</v>
       </c>
@@ -6085,9 +6759,9 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="166"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="151"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="157"/>
       <c r="D18" s="71" t="s">
         <v>52</v>
       </c>
@@ -6102,9 +6776,9 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="166"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="151"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="157"/>
       <c r="D19" s="71" t="s">
         <v>53</v>
       </c>
@@ -6119,9 +6793,9 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="166"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="151"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
@@ -6136,9 +6810,9 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="166"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="151"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
@@ -6153,9 +6827,9 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="166"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="151"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
@@ -6170,9 +6844,9 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="166"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="151"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
@@ -6187,9 +6861,9 @@
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="152"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="71" t="s">
         <v>57</v>
       </c>
@@ -6217,13 +6891,13 @@
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="153"/>
+      <c r="C26" s="159"/>
       <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
@@ -6238,9 +6912,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="154"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
@@ -6255,9 +6929,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="157"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="154"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
@@ -6280,9 +6954,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="157"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="154"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
@@ -6297,9 +6971,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="154"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="54" t="s">
         <v>62</v>
       </c>
@@ -6314,9 +6988,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="154"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
@@ -6331,9 +7005,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="157"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="154"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="54" t="s">
         <v>64</v>
       </c>
@@ -6348,9 +7022,9 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="157"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="154"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="54" t="s">
         <v>65</v>
       </c>
@@ -6365,9 +7039,9 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="155"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
@@ -6429,13 +7103,13 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="141" t="s">
+      <c r="B38" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="78" t="s">
         <v>69</v>
       </c>
@@ -6450,9 +7124,9 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="142"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="139"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="78" t="s">
         <v>70</v>
       </c>
@@ -6467,9 +7141,9 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="142"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="139"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="78" t="s">
         <v>71</v>
       </c>
@@ -6484,9 +7158,9 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="142"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="139"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="78" t="s">
         <v>72</v>
       </c>
@@ -6501,9 +7175,9 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="142"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="139"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="78" t="s">
         <v>74</v>
       </c>
@@ -6518,9 +7192,9 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="142"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="139"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="78" t="s">
         <v>75</v>
       </c>
@@ -6535,9 +7209,9 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="142"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="139"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="78" t="s">
         <v>76</v>
       </c>
@@ -6552,9 +7226,9 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="143"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="140"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="78" t="s">
         <v>77</v>
       </c>
@@ -6582,13 +7256,13 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="126"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="84" t="s">
         <v>78</v>
       </c>
@@ -6607,9 +7281,9 @@
       <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="127"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="84" t="s">
         <v>79</v>
       </c>
@@ -6624,9 +7298,9 @@
       <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="127"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="84" t="s">
         <v>80</v>
       </c>
@@ -6641,9 +7315,9 @@
       <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="128"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="134"/>
       <c r="D50" s="84"/>
       <c r="E50" s="85"/>
       <c r="F50" s="85"/>
@@ -6667,13 +7341,13 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="132" t="s">
+      <c r="A52" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="132" t="s">
+      <c r="B52" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="135"/>
+      <c r="C52" s="141"/>
       <c r="D52" s="81" t="s">
         <v>85</v>
       </c>
@@ -6688,9 +7362,9 @@
       <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="133"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="136"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="142"/>
       <c r="D53" s="81" t="s">
         <v>86</v>
       </c>
@@ -6705,9 +7379,9 @@
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="136"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="142"/>
       <c r="D54" s="81" t="s">
         <v>87</v>
       </c>
@@ -6722,9 +7396,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="134"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="137"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="81" t="s">
         <v>88</v>
       </c>
@@ -6752,13 +7426,13 @@
       <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="120" t="s">
+      <c r="A57" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="129"/>
+      <c r="C57" s="135"/>
       <c r="D57" s="64" t="s">
         <v>81</v>
       </c>
@@ -6773,9 +7447,9 @@
       <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="130"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="136"/>
       <c r="D58" s="64" t="s">
         <v>84</v>
       </c>
@@ -6790,9 +7464,9 @@
       <c r="K58" s="65"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="130"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -6807,9 +7481,9 @@
       <c r="K59" s="65"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="122"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="131"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="64" t="s">
         <v>82</v>
       </c>
@@ -6837,13 +7511,13 @@
       <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="114" t="s">
+      <c r="B62" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="117"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="88" t="s">
         <v>163</v>
       </c>
@@ -6858,9 +7532,9 @@
       <c r="K62" s="89"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="118"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="88" t="s">
         <v>164</v>
       </c>
@@ -6875,9 +7549,9 @@
       <c r="K63" s="89"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="118"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="91"/>
       <c r="E64" s="89"/>
       <c r="F64" s="89"/>
@@ -6890,9 +7564,9 @@
       <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="116"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="119"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="91"/>
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
@@ -6983,13 +7657,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="181" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -7002,9 +7676,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="181"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="36" t="s">
         <v>96</v>
       </c>
@@ -7015,9 +7689,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="175" t="s">
+      <c r="A4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="181" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -7034,9 +7708,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="182"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="37" t="s">
         <v>160</v>
       </c>
@@ -7051,9 +7725,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="182"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="37" t="s">
         <v>159</v>
       </c>
@@ -7068,9 +7742,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="184"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="183"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="37" t="s">
         <v>100</v>
       </c>
@@ -7081,9 +7755,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="37" t="s">
         <v>101</v>
       </c>
@@ -7094,9 +7768,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="184"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="183"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="37" t="s">
         <v>102</v>
       </c>
@@ -7107,9 +7781,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="184"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="183"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="103" t="s">
         <v>178</v>
       </c>
@@ -7118,9 +7792,9 @@
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="184"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="181"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="37" t="s">
         <v>158</v>
       </c>
@@ -7131,8 +7805,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="38" t="s">
         <v>119</v>
       </c>
@@ -7146,8 +7820,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="179"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="185"/>
       <c r="C13" s="38" t="s">
         <v>120</v>
       </c>
@@ -7161,8 +7835,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
-      <c r="B14" s="180"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
@@ -7185,13 +7859,13 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="181" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -7204,9 +7878,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="176"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="36" t="s">
         <v>105</v>
       </c>
@@ -7217,9 +7891,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="176"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="36" t="s">
         <v>106</v>
       </c>
@@ -7230,9 +7904,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="177"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="36" t="s">
         <v>107</v>
       </c>
@@ -7252,13 +7926,13 @@
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="36" t="s">
         <v>110</v>
       </c>
@@ -7269,9 +7943,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="176"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="36" t="s">
         <v>111</v>
       </c>
@@ -7282,9 +7956,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="176"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="36" t="s">
         <v>112</v>
       </c>
@@ -7295,9 +7969,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="176"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="36" t="s">
         <v>113</v>
       </c>
@@ -7308,9 +7982,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="176"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="36" t="s">
         <v>114</v>
       </c>
@@ -7321,9 +7995,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="176"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="182"/>
       <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
@@ -7334,9 +8008,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="176"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
@@ -7347,9 +8021,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="180"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="177"/>
+      <c r="A28" s="186"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
@@ -7418,8 +8092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7441,10 +8115,10 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="191" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7453,32 +8127,32 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="189"/>
-      <c r="B5" s="186"/>
+      <c r="A5" s="195"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="190"/>
-      <c r="B6" s="187"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="3" t="s">
         <v>149</v>
       </c>
@@ -7491,10 +8165,10 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="191" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7503,32 +8177,32 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="189"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="190"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
@@ -7589,10 +8263,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="188" t="s">
+      <c r="A20" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="197" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -7601,32 +8275,32 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="189"/>
-      <c r="B21" s="192"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="192"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="192"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="190"/>
-      <c r="B24" s="193"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
@@ -7655,10 +8329,10 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="191" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -7667,56 +8341,56 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="189"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="189"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="189"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="189"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="189"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="195"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="189"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="195"/>
+      <c r="B34" s="192"/>
       <c r="C34" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="190"/>
-      <c r="B35" s="187"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
@@ -7724,7 +8398,9 @@
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
@@ -7945,6 +8621,260 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="178.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="88" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="110"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="110"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3" display="Salted Password Hashing"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -8119,7 +9049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -8150,10 +9080,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="194" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="104" t="s">
@@ -8166,8 +9096,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="105" t="s">
         <v>204</v>
       </c>
@@ -8178,8 +9108,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="194"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="202"/>
       <c r="C4" s="9" t="s">
         <v>205</v>
       </c>
@@ -8188,8 +9118,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="194"/>
-      <c r="B5" s="196"/>
+      <c r="A5" s="200"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="9" t="s">
         <v>214</v>
       </c>
@@ -8200,8 +9130,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
-      <c r="B6" s="197"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="112" t="s">
         <v>220</v>
       </c>
@@ -8275,7 +9205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -8307,10 +9237,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="191" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -8321,8 +9251,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="189"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="11" t="s">
         <v>226</v>
       </c>
@@ -8331,8 +9261,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="190"/>
-      <c r="B4" s="187"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="11" t="s">
         <v>227</v>
       </c>
@@ -8349,10 +9279,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="191" t="s">
         <v>231</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -8363,8 +9293,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="189"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="11" t="s">
         <v>230</v>
       </c>
@@ -8373,8 +9303,8 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="189"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="11" t="s">
         <v>228</v>
       </c>
@@ -8383,8 +9313,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="11" t="s">
         <v>229</v>
       </c>
@@ -8393,8 +9323,8 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="190"/>
-      <c r="B10" s="187"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="11" t="s">
         <v>233</v>
       </c>
@@ -8411,10 +9341,10 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="197" t="s">
         <v>239</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -8425,8 +9355,8 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="189"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="11" t="s">
         <v>234</v>
       </c>
@@ -8435,8 +9365,8 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="187"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="11" t="s">
         <v>235</v>
       </c>
@@ -8453,10 +9383,10 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="191" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -8467,8 +9397,8 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="190"/>
-      <c r="B17" s="187"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="11" t="s">
         <v>236</v>
       </c>
@@ -8539,303 +9469,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="201" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="203" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="202"/>
-      <c r="F3" s="203" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="188" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="185" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="203" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="205"/>
-      <c r="C5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="206" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="203"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="185" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="208" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2" display="http://mosquitto.org/"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
 </file>
--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="318">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2639,15 +2639,6 @@
     </r>
   </si>
   <si>
-    <t>Cryptography - Encryption/decryption</t>
-  </si>
-  <si>
-    <t>RSA2</t>
-  </si>
-  <si>
-    <t>HMAC Algorithm</t>
-  </si>
-  <si>
     <t>Access Control List (ACL)</t>
   </si>
   <si>
@@ -3525,7 +3516,1368 @@
     <t>https://www.arduino.cc/</t>
   </si>
   <si>
-    <t>Hash Functions - MD5, SHA1, and SHA2</t>
+    <t>Mutable and Immutable</t>
+  </si>
+  <si>
+    <t>Base 64 Encoding/Decoding</t>
+  </si>
+  <si>
+    <t>Cryptographic Hash Functions</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>Password Hashing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How To Protect User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+At the server side, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can be secured by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashing the passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and storing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed passswords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> instead of the plain-text password in user credentials database.
+Following cryptographic password hashing techniques are used to hash the passwords by using cryptographic hash functions/algorithms like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MD5, SHA-1, SHA-2, SHA-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and so on,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Passwords are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using any of the cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Salted Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is appended/prepended to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">and it's unique to per user-per password
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">will be stored along with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hash</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">in a user account's database
+    * Don't reuse the Salt and must be at least the size of the hash
+    * Relatively secure (not 100% secure) and can be cracked using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables or Rainbow Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> techniques however slow to crack.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How Hashes are Cracked</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reverse Lookup Tables:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rainbow Tables:</t>
+    </r>
+  </si>
+  <si>
+    <t>Digital Signatures</t>
+  </si>
+  <si>
+    <t>https://www.lifewire.com/cryptographic-hash-function-2625832
+https://en.wikipedia.org/wiki/Secure_Hash_Algorithms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hash function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a one way hash function which takes an input (or 'message') and returns a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>fixed-size alphanumeric string,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that can't be reversed to obtain the original input/message.
+The string is called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">'hash value', 'message digest', 'digital fingerprint', 'digest' or 'checksum'.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cryptographic hash functions neither provides message encryption nor encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Some commonly used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hash functions/algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a) MD5 (Message Digest-5)- https://en.wikipedia.org/wiki/MD5 - Produces 128-bit hash value - Not very secure &amp; outdated but can still be used as a checksum to verify data integrity
+ b) SHA-1(Secure Hash Algorithm -1) - https://en.wikipedia.org/wiki/SHA-1 - Produces 160-bit hash value - Not very secure &amp; outdated and replaced by SHA-2, SHA-3
+ c) SHA-2(Secure Hash Algorithm -2) - https://en.wikipedia.org/wiki/SHA-2 - The SHA-2 family consists of six hash functions with digests (hash values) that are 224, 256, 384 or 512 bits: SHA-224, SHA-256, SHA-384, SHA-512, SHA-512/224, SHA-512/256 - SHA-256 is widely used
+ d) SHA-3(Secure Hash Algorithm -3) - https://en.wikipedia.org/wiki/SHA-3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>The ideal cryptographic hash function has five main properties</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a) It is deterministic so the same message always results in the same hash
+ b) It is quick to compute the hash value for any given message
+ c) It is infeasible to generate a message from its hash value except by trying all possible messages
+ d) A small change to a message should change the hash value so extensively that the new hash value appears uncorrelated with the old hash value
+ e) It is infeasible to find two different messages with the same hash value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>The applications/uses of cryptographic hash functions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ a) Used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ b) Used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Message Authentication Codes (MACs) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">like JWT
+ c) Used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Signatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ d) Used in other forms of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Authenitcation </t>
+    </r>
+  </si>
+  <si>
+    <t>https://jwt.io/</t>
+  </si>
+  <si>
+    <t>Hashing Collision</t>
+  </si>
+  <si>
+    <t>Hashing vs Encryption vs Encoding</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it
+https://gcn.com/articles/2013/12/02/hashing-vs-encryption.aspx</t>
+  </si>
+  <si>
+    <t>Message Authentication Codes (MACs)</t>
+  </si>
+  <si>
+    <r>
+      <t>* A M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>essage Authentication Code (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a short piece of information(not necessarly be encrypted) used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authenticate a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">which is sent/attached along with the message (encrypted/non-encrypted).
+* The MAC provides the Data/Message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (the data/message is not alterered/tampered) &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(the data/message came from the stated sender )
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data/message integrity &amp; authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is achieved by generating the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAC value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(by using the hash functions) of the</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> data/message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and comparing against recieved MAC value. If both MAC values doesn't match then data/message is changed/tampered and it's not authentic.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is applied to generate the MAC value. In case of HMAC algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is used and in case of RSA algorithm "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public-private keys"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are used
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAC Implemention Algorithms:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) HMAC (Hash Based MAC) - X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/Hash-based_message_authentication_code 
+        * HMAC is a specific type of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>message authentication code (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> involving a cryptographic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash function </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(like SHA-1, SHA-2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret cryptographic key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+        * Any cryptographic hash function, such as MD5 or SHA-1, may be used in the calculation of an HMAC; 
+        * The resulting MAC algorithm is termed HMAC-X, where X is the hash function used e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> HMAC-MD5 or HMAC-SHA1, HMAC-SHA2
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HMAC algorithm doesn't provide </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) RSA (Rivest–Shamir–Adleman) - X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/RSA_(cryptosystem)
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3558,7 +4910,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> JW Token</t>
+      <t xml:space="preserve"> JWT</t>
     </r>
     <r>
       <rPr>
@@ -3611,32 +4963,65 @@
     </r>
   </si>
   <si>
-    <t>Mutable and Immutable</t>
-  </si>
-  <si>
-    <t>Secure User Passwords</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How To Protect User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+    <r>
+      <t xml:space="preserve">* JWT is generated by the server upon client's request. Server maintains the list of generated JW tokens to verify the JWT
+* For the first time, client generates the JWT by providing user name and password (only one time) and for the subsequent calls uses JWT and client needs to store the JWT securely
+* Generally, JW tokens will have the expiration date
+* JWT consists of three parts, namely,
+   a) Header
+   b) Playload
+   c) Signature = hash(Header + "." + Payload + Key) here Key can be secret key (in case of HS256) or public-private key (in case of RS256)
+* JWT algorithms
+   a) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HS256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Uses HMAC-SHA256 as hash function to generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">of the message (i.e. signature) using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key</t>
     </r>
     <r>
       <rPr>
@@ -3646,87 +5031,46 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-At server side, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can be secured/protected by using following cryptographic hashing functions/techniques,
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Simple Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Passwords are </t>
+   b) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RS256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Uses RSA-SHA256 as hash function to generate the hash value of the message (i.e. signature) using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public-private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* In CSSDK project, we use Pthon library https://github.com/jpadilla/pyjwt for generating JWT tokens which supports both types of JWT algorithms </t>
     </r>
     <r>
       <rPr>
@@ -3737,78 +5081,16 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>hashed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> using cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Salted Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">HS256 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
     </r>
     <r>
       <rPr>
@@ -3819,291 +5101,18 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">is appended/prepended to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">and it's unique to per user-per password
-    * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">will be stored along with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hash</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">in a user account's database
-    * Don't reuse the Salt and must be at least the size of the hash
-    * Relatively secure (not 100% secure) and can be cracked using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables or Rainbow Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> techniques however slow to crack.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How Hashes are Cracked</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reverse Lookup Tables:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rainbow Tables:</t>
-    </r>
-  </si>
-  <si>
-    <t>* JW token is generated by the server 
-* Uses HS256 or RS256 for signing the token</t>
+      <t xml:space="preserve"> RS256</t>
+    </r>
+  </si>
+  <si>
+    <t>Cryptographic Encryption/decryption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4272,6 +5281,15 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -4412,7 +5430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5027,6 +6045,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5625,18 +6646,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="115"/>
       <c r="F2" s="116" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -5647,14 +6668,14 @@
         <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="116" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
@@ -5662,31 +6683,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="191" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="116" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="204"/>
       <c r="B5" s="205"/>
       <c r="C5" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="117" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5702,13 +6723,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="191" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="116"/>
@@ -5717,14 +6738,14 @@
       <c r="A8" s="204"/>
       <c r="B8" s="205"/>
       <c r="C8" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E8" s="115"/>
       <c r="F8" s="116" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5788,7 +6809,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="115"/>
@@ -5800,13 +6821,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="119" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5938,7 +6959,7 @@
         <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
@@ -6123,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -6229,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -6241,7 +7262,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -6336,11 +7357,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8399,7 +9420,7 @@
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -8621,10 +9642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8632,13 +9653,11 @@
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="178.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="88" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="88" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8647,229 +9666,218 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>272</v>
+      <c r="B4" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>306</v>
+      <c r="B5" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="C5" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="209" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="111"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="C8" s="110"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" s="110"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="110"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C13" s="110"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C14" s="110"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="C15" s="110"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C16" s="110"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="C17" s="110"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="C18" s="110"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>311</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3" display="Salted Password Hashing"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6" display="https://www.lifewire.com/cryptographic-hash-function-2625832"/>
+    <hyperlink ref="B7" r:id="rId7" display="Message Authentication Codes(MACs)"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="C19" r:id="rId9" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -4,33 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801"/>
   </bookViews>
   <sheets>
-    <sheet name="Topics" sheetId="4" r:id="rId1"/>
-    <sheet name="Data Structures" sheetId="9" r:id="rId2"/>
-    <sheet name="Algorithms" sheetId="8" r:id="rId3"/>
-    <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId4"/>
-    <sheet name="Design &amp; Architecture" sheetId="10" r:id="rId5"/>
-    <sheet name="Security" sheetId="20" r:id="rId6"/>
-    <sheet name="Programming Languages" sheetId="12" r:id="rId7"/>
-    <sheet name="Scripting Languages" sheetId="13" r:id="rId8"/>
-    <sheet name="DevOps" sheetId="14" r:id="rId9"/>
-    <sheet name="IoT" sheetId="17" r:id="rId10"/>
-    <sheet name="Web Technologies" sheetId="16" r:id="rId11"/>
-    <sheet name="RFID System" sheetId="19" r:id="rId12"/>
-    <sheet name="Retail" sheetId="21" r:id="rId13"/>
+    <sheet name="Docker" sheetId="22" r:id="rId1"/>
+    <sheet name="Topics" sheetId="4" r:id="rId2"/>
+    <sheet name="Data Structures" sheetId="9" r:id="rId3"/>
+    <sheet name="Algorithms" sheetId="8" r:id="rId4"/>
+    <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId5"/>
+    <sheet name="Design &amp; Architecture" sheetId="10" r:id="rId6"/>
+    <sheet name="Security" sheetId="20" r:id="rId7"/>
+    <sheet name="Programming Languages" sheetId="12" r:id="rId8"/>
+    <sheet name="Scripting Languages" sheetId="13" r:id="rId9"/>
+    <sheet name="DevOps" sheetId="14" r:id="rId10"/>
+    <sheet name="IoT" sheetId="17" r:id="rId11"/>
+    <sheet name="Web Technologies" sheetId="16" r:id="rId12"/>
+    <sheet name="RFID System" sheetId="19" r:id="rId13"/>
+    <sheet name="Retail" sheetId="21" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Structures'!$J$3:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Structures'!$J$3:$J$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="328">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2657,9 +2657,6 @@
     <t>Without the encryption, it's easy for people with the ability to monitor the connection--say a person on the same unsecured WiFi network or a rogue ISP employee—to see everything you ask for and everything the site sends back. That allows attackers to perform what's known as a Man in the Middle attack.</t>
   </si>
   <si>
-    <t>Cypher</t>
-  </si>
-  <si>
     <t>https://arstechnica.com/information-technology/2016/07/https-is-not-a-magic-bullet-for-web-security/</t>
   </si>
   <si>
@@ -2679,458 +2676,6 @@
   </si>
   <si>
     <t>HTTPS - Secure Connection</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HTTPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> offers three things:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Secrecy
-  b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  c) Server Authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-All the above three things can be achieved by using cryptographic commuincation protocols such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>SSL and TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocols provides the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>verifying</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">server provided </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>certificate.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Integrity &amp; Secrecy:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  SSL/TSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocol encrypts the data (data is secret) sent over the network using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HMAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or by using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA algorithm's</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Public-Private key pair. Man in the middle attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>can't</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>modify/alter the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>data as data is encrypted.
-* HTTPS does not mean your data is secure, it just means your connection is secure.</t>
-    </r>
   </si>
   <si>
     <t>SSH</t>
@@ -5106,6 +4651,491 @@
   </si>
   <si>
     <t>Cryptographic Encryption/decryption</t>
+  </si>
+  <si>
+    <t>Cipher</t>
+  </si>
+  <si>
+    <t>Encrypted text is called as Cipher text</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> offers three things:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secrecy
+  b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  c) Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All the above three things can be achieved by using cryptographic commuincation protocols such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>SSL and TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocols provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>verifying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>certificate.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Integrity &amp; Secrecy:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  SSL/TSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocol encrypts the data (data is secret) sent over the network using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HMAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA algorithm's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Public-Private key pair. Man in the middle attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>can't</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>modify/alter the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>data as data is encrypted.
+* HTTPS does not mean your data is secure, it just means your connection is secure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Doker Hub</t>
+  </si>
+  <si>
+    <t>Docker Image</t>
+  </si>
+  <si>
+    <t>Docker Container</t>
+  </si>
+  <si>
+    <t>Run Docker image in a  Docker Container</t>
+  </si>
+  <si>
+    <t>Docker Image Build</t>
+  </si>
+  <si>
+    <t>Docker Image Push</t>
+  </si>
+  <si>
+    <t>Docker Image Pull</t>
+  </si>
+  <si>
+    <t>Docker File</t>
+  </si>
+  <si>
+    <t>Docker Composer</t>
   </si>
 </sst>
 </file>
@@ -5779,6 +5809,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6045,9 +6078,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6354,273 +6384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="31.21875" style="10" customWidth="1"/>
     <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
@@ -6635,6 +6408,457 @@
       <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="196"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="197"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="192" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="196"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="196"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="196"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="197"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="198" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="196"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="197"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="192" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="197"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" s="12" t="s">
         <v>246</v>
       </c>
@@ -6644,20 +6868,20 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="115"/>
       <c r="F2" s="116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -6668,46 +6892,46 @@
         <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="110" t="s">
         <v>280</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>282</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="116" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="192" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="194" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="191" t="s">
+      <c r="D4" s="110" t="s">
         <v>284</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>286</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="116" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="205"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="205"/>
-      <c r="C5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6719,33 +6943,33 @@
       <c r="F6" s="116"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="192" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="116"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
       <c r="C8" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E8" s="115"/>
       <c r="F8" s="116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6809,7 +7033,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="115"/>
@@ -6821,13 +7045,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="119" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6908,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7104,7 +7328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -7144,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -7154,10 +7378,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="207" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -7170,8 +7394,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="195"/>
-      <c r="B4" s="195"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="11" t="s">
         <v>244</v>
       </c>
@@ -7182,8 +7406,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
-      <c r="B5" s="196"/>
+      <c r="A5" s="197"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="11" t="s">
         <v>245</v>
       </c>
@@ -7194,10 +7418,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="208" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -7210,8 +7434,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="11" t="s">
         <v>252</v>
       </c>
@@ -7250,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -7262,7 +7486,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -7325,7 +7549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -7357,11 +7581,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7472,10 +7696,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7530,13 +8011,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="151" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -7557,9 +8038,9 @@
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="151"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="50" t="s">
         <v>38</v>
       </c>
@@ -7576,9 +8057,9 @@
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="151"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -7593,9 +8074,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="151"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="152"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -7610,9 +8091,9 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="151"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -7627,9 +8108,9 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="152"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
@@ -7657,13 +8138,13 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="153"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
@@ -7678,9 +8159,9 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="154"/>
+      <c r="A12" s="167"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="60" t="s">
         <v>41</v>
       </c>
@@ -7695,9 +8176,9 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="166"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="154"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
@@ -7712,9 +8193,9 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="166"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="154"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
@@ -7729,9 +8210,9 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="155"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="156"/>
       <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
@@ -7759,13 +8240,13 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="156"/>
+      <c r="C17" s="157"/>
       <c r="D17" s="71" t="s">
         <v>51</v>
       </c>
@@ -7780,9 +8261,9 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="157"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="71" t="s">
         <v>52</v>
       </c>
@@ -7797,9 +8278,9 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="157"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="71" t="s">
         <v>53</v>
       </c>
@@ -7814,9 +8295,9 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="157"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
@@ -7831,9 +8312,9 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="157"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
@@ -7848,9 +8329,9 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="157"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
@@ -7865,9 +8346,9 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="157"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
@@ -7882,9 +8363,9 @@
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="158"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="159"/>
       <c r="D24" s="71" t="s">
         <v>57</v>
       </c>
@@ -7912,13 +8393,13 @@
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="159"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
@@ -7933,9 +8414,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="160"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
@@ -7950,9 +8431,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="163"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="160"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
@@ -7975,9 +8456,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="163"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="160"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
@@ -7992,9 +8473,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="163"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="160"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="54" t="s">
         <v>62</v>
       </c>
@@ -8009,9 +8490,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="160"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
@@ -8026,9 +8507,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="160"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="54" t="s">
         <v>64</v>
       </c>
@@ -8043,9 +8524,9 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="160"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="54" t="s">
         <v>65</v>
       </c>
@@ -8060,9 +8541,9 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="161"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="162"/>
       <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
@@ -8124,13 +8605,13 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="144"/>
+      <c r="C38" s="145"/>
       <c r="D38" s="78" t="s">
         <v>69</v>
       </c>
@@ -8145,9 +8626,9 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="145"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="78" t="s">
         <v>70</v>
       </c>
@@ -8162,9 +8643,9 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="145"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="78" t="s">
         <v>71</v>
       </c>
@@ -8179,9 +8660,9 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="145"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="78" t="s">
         <v>72</v>
       </c>
@@ -8196,9 +8677,9 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="145"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="78" t="s">
         <v>74</v>
       </c>
@@ -8213,9 +8694,9 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="148"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="145"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="78" t="s">
         <v>75</v>
       </c>
@@ -8230,9 +8711,9 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="148"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="145"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="78" t="s">
         <v>76</v>
       </c>
@@ -8247,9 +8728,9 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="149"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="147"/>
       <c r="D45" s="78" t="s">
         <v>77</v>
       </c>
@@ -8277,13 +8758,13 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="129" t="s">
+      <c r="B47" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="132"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="84" t="s">
         <v>78</v>
       </c>
@@ -8302,9 +8783,9 @@
       <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="130"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="133"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="134"/>
       <c r="D48" s="84" t="s">
         <v>79</v>
       </c>
@@ -8319,9 +8800,9 @@
       <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="133"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="84" t="s">
         <v>80</v>
       </c>
@@ -8336,9 +8817,9 @@
       <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="134"/>
+      <c r="A50" s="132"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="135"/>
       <c r="D50" s="84"/>
       <c r="E50" s="85"/>
       <c r="F50" s="85"/>
@@ -8362,13 +8843,13 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="138" t="s">
+      <c r="A52" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="141"/>
+      <c r="C52" s="142"/>
       <c r="D52" s="81" t="s">
         <v>85</v>
       </c>
@@ -8383,9 +8864,9 @@
       <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="139"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="142"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="143"/>
       <c r="D53" s="81" t="s">
         <v>86</v>
       </c>
@@ -8400,9 +8881,9 @@
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="142"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="143"/>
       <c r="D54" s="81" t="s">
         <v>87</v>
       </c>
@@ -8417,9 +8898,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="143"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="144"/>
       <c r="D55" s="81" t="s">
         <v>88</v>
       </c>
@@ -8447,13 +8928,13 @@
       <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="135"/>
+      <c r="C57" s="136"/>
       <c r="D57" s="64" t="s">
         <v>81</v>
       </c>
@@ -8468,9 +8949,9 @@
       <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="136"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="137"/>
       <c r="D58" s="64" t="s">
         <v>84</v>
       </c>
@@ -8485,9 +8966,9 @@
       <c r="K58" s="65"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="136"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="137"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -8502,9 +8983,9 @@
       <c r="K59" s="65"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="137"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="138"/>
       <c r="D60" s="64" t="s">
         <v>82</v>
       </c>
@@ -8532,13 +9013,13 @@
       <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="120" t="s">
+      <c r="B62" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="123"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="88" t="s">
         <v>163</v>
       </c>
@@ -8553,9 +9034,9 @@
       <c r="K62" s="89"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="121"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="124"/>
+      <c r="A63" s="122"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="88" t="s">
         <v>164</v>
       </c>
@@ -8570,9 +9051,9 @@
       <c r="K63" s="89"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="121"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="124"/>
+      <c r="A64" s="122"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="91"/>
       <c r="E64" s="89"/>
       <c r="F64" s="89"/>
@@ -8585,9 +9066,9 @@
       <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="122"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="125"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="91"/>
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
@@ -8638,7 +9119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -8678,13 +9159,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="182" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -8697,9 +9178,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="190"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="187"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="36" t="s">
         <v>96</v>
       </c>
@@ -8710,9 +9191,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="190"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="181" t="s">
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="182" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -8729,9 +9210,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="190"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="188"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="37" t="s">
         <v>160</v>
       </c>
@@ -8746,9 +9227,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="190"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="188"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="37" t="s">
         <v>159</v>
       </c>
@@ -8763,9 +9244,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="190"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="189"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="190"/>
       <c r="D7" s="37" t="s">
         <v>100</v>
       </c>
@@ -8776,9 +9257,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="189"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="190"/>
       <c r="D8" s="37" t="s">
         <v>101</v>
       </c>
@@ -8789,9 +9270,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="190"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="189"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="37" t="s">
         <v>102</v>
       </c>
@@ -8802,9 +9283,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="190"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="189"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="190"/>
       <c r="D10" s="103" t="s">
         <v>178</v>
       </c>
@@ -8813,9 +9294,9 @@
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="190"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="187"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="37" t="s">
         <v>158</v>
       </c>
@@ -8826,8 +9307,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
-      <c r="B12" s="185"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="38" t="s">
         <v>119</v>
       </c>
@@ -8841,8 +9322,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
-      <c r="B13" s="185"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="38" t="s">
         <v>120</v>
       </c>
@@ -8856,8 +9337,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
@@ -8880,13 +9361,13 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="182" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -8899,9 +9380,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="182"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="36" t="s">
         <v>105</v>
       </c>
@@ -8912,9 +9393,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="182"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="36" t="s">
         <v>106</v>
       </c>
@@ -8925,9 +9406,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="36" t="s">
         <v>107</v>
       </c>
@@ -8947,13 +9428,13 @@
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="181"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="36" t="s">
         <v>110</v>
       </c>
@@ -8964,9 +9445,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="182"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="36" t="s">
         <v>111</v>
       </c>
@@ -8977,9 +9458,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="182"/>
+      <c r="A23" s="186"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="36" t="s">
         <v>112</v>
       </c>
@@ -8990,9 +9471,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="182"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="36" t="s">
         <v>113</v>
       </c>
@@ -9003,9 +9484,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="182"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="36" t="s">
         <v>114</v>
       </c>
@@ -9016,9 +9497,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="185"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="182"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
@@ -9029,9 +9510,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="185"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="182"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
@@ -9042,9 +9523,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="183"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
@@ -9109,7 +9590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -9136,10 +9617,10 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="192" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9148,32 +9629,32 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="193"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="195"/>
-      <c r="B4" s="192"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="195"/>
-      <c r="B5" s="192"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
-      <c r="B6" s="193"/>
+      <c r="A6" s="197"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="3" t="s">
         <v>149</v>
       </c>
@@ -9186,10 +9667,10 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="192" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -9198,32 +9679,32 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="195"/>
-      <c r="B9" s="192"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="195"/>
-      <c r="B10" s="192"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="195"/>
-      <c r="B11" s="192"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="193"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
@@ -9284,10 +9765,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="198" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -9296,32 +9777,32 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="195"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="195"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="195"/>
-      <c r="B23" s="198"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="199"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
@@ -9350,10 +9831,10 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="192" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -9362,56 +9843,56 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="195"/>
-      <c r="B29" s="192"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="195"/>
-      <c r="B30" s="192"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="193"/>
       <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
-      <c r="B31" s="192"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="193"/>
       <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="195"/>
-      <c r="B32" s="192"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="193"/>
       <c r="C32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="195"/>
-      <c r="B33" s="192"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="193"/>
       <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="195"/>
-      <c r="B34" s="192"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="193"/>
       <c r="C34" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="193"/>
+      <c r="A35" s="197"/>
+      <c r="B35" s="194"/>
       <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
@@ -9420,7 +9901,7 @@
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -9471,7 +9952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -9640,12 +10121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9672,13 +10153,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -9686,10 +10167,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -9698,13 +10179,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="111" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="280.8" x14ac:dyDescent="0.3">
@@ -9712,10 +10193,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -9724,13 +10205,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="209" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
@@ -9738,10 +10219,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="111"/>
     </row>
@@ -9750,7 +10231,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C8" s="110"/>
       <c r="D8" s="3"/>
@@ -9802,9 +10283,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="110"/>
+        <v>316</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>317</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9812,7 +10295,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="3"/>
@@ -9820,7 +10303,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="3"/>
@@ -9828,7 +10311,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="110"/>
       <c r="D16" s="3"/>
@@ -9836,7 +10319,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" s="110"/>
       <c r="D17" s="3"/>
@@ -9844,7 +10327,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" s="110"/>
       <c r="D18" s="3"/>
@@ -9852,16 +10335,16 @@
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +10364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -10057,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -10088,10 +10571,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="195" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="104" t="s">
@@ -10104,8 +10587,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="200"/>
-      <c r="B3" s="202"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="203"/>
       <c r="C3" s="105" t="s">
         <v>204</v>
       </c>
@@ -10116,8 +10599,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="200"/>
-      <c r="B4" s="202"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="9" t="s">
         <v>205</v>
       </c>
@@ -10126,8 +10609,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="200"/>
-      <c r="B5" s="202"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="9" t="s">
         <v>214</v>
       </c>
@@ -10138,8 +10621,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="201"/>
-      <c r="B6" s="203"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="112" t="s">
         <v>220</v>
       </c>
@@ -10211,270 +10694,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="195"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="194" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="191" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="195"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="195"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="195"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="194" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="197" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="195"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="194" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="191" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Docker" sheetId="22" r:id="rId1"/>
-    <sheet name="Topics" sheetId="4" r:id="rId2"/>
+    <sheet name="Topics" sheetId="4" r:id="rId1"/>
+    <sheet name="Docker" sheetId="22" r:id="rId2"/>
     <sheet name="Data Structures" sheetId="9" r:id="rId3"/>
     <sheet name="Algorithms" sheetId="8" r:id="rId4"/>
     <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="348">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2660,9 +2660,6 @@
     <t>https://arstechnica.com/information-technology/2016/07/https-is-not-a-magic-bullet-for-web-security/</t>
   </si>
   <si>
-    <t>Certificate Authorities (CA)</t>
-  </si>
-  <si>
     <t>JSON Web Token (JWT)</t>
   </si>
   <si>
@@ -2673,9 +2670,6 @@
   </si>
   <si>
     <t>Supply Chain Management</t>
-  </si>
-  <si>
-    <t>HTTPS - Secure Connection</t>
   </si>
   <si>
     <t>SSH</t>
@@ -3621,6 +3615,2822 @@
 https://en.wikipedia.org/wiki/Secure_Hash_Algorithms</t>
   </si>
   <si>
+    <t>https://jwt.io/</t>
+  </si>
+  <si>
+    <t>Hashing Collision</t>
+  </si>
+  <si>
+    <t>Hashing vs Encryption vs Encoding</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it
+https://gcn.com/articles/2013/12/02/hashing-vs-encryption.aspx</t>
+  </si>
+  <si>
+    <t>Message Authentication Codes (MACs)</t>
+  </si>
+  <si>
+    <r>
+      <t>* A M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>essage Authentication Code (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a short piece of information(not necessarly be encrypted) used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authenticate a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">which is sent/attached along with the message (encrypted/non-encrypted).
+* The MAC provides the Data/Message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (the data/message is not alterered/tampered) &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(the data/message came from the stated sender )
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data/message integrity &amp; authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is achieved by generating the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAC value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(by using the hash functions) of the</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> data/message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and comparing against recieved MAC value. If both MAC values doesn't match then data/message is changed/tampered and it's not authentic.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is applied to generate the MAC value. In case of HMAC algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is used and in case of RSA algorithm "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public-private keys"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are used
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAC Implemention Algorithms:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) HMAC (Hash Based MAC) - X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/Hash-based_message_authentication_code 
+        * HMAC is a specific type of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>message authentication code (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> involving a cryptographic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash function </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(like SHA-1, SHA-2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret cryptographic key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+        * Any cryptographic hash function, such as MD5 or SHA-1, may be used in the calculation of an HMAC; 
+        * The resulting MAC algorithm is termed HMAC-X, where X is the hash function used e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> HMAC-MD5 or HMAC-SHA1, HMAC-SHA2
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HMAC algorithm doesn't provide </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) RSA (Rivest–Shamir–Adleman) - X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/RSA_(cryptosystem)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Server authenticates the client by using client provided credentials such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Name &amp; Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> JWT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Always use HTTPS connection (as credentials will be encrypted).
+* Generally Webscoket connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Name and Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> as credentials where as RESTful connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>JW token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cryptographic Encryption/decryption</t>
+  </si>
+  <si>
+    <t>Cipher</t>
+  </si>
+  <si>
+    <t>Encrypted text is called as Cipher text</t>
+  </si>
+  <si>
+    <t>Doker Hub</t>
+  </si>
+  <si>
+    <t>Docker Image</t>
+  </si>
+  <si>
+    <t>Docker Container</t>
+  </si>
+  <si>
+    <t>Run Docker image in a  Docker Container</t>
+  </si>
+  <si>
+    <t>Docker Image Build</t>
+  </si>
+  <si>
+    <t>Docker Image Push</t>
+  </si>
+  <si>
+    <t>Docker Image Pull</t>
+  </si>
+  <si>
+    <t>Docker File</t>
+  </si>
+  <si>
+    <t>Docker Composer</t>
+  </si>
+  <si>
+    <t>TLS/SSL</t>
+  </si>
+  <si>
+    <t>Certification Authorities (CA)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* A CA is a mutually trusted third party that confirms the identity of a certificate requestor (usually a user or computer), and then issues the requestor a digital certificate.
+* Verisign
+* The certificate binds the requestor’s identity to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public key</t>
+    </r>
+  </si>
+  <si>
+    <t>Digital Certificate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* JWT is generated by the server upon client's request. Server maintains the list of generated JW tokens to verify the requested JWT
+* For the first time, client requests JWT by providing user name and password (only one time) to the server and for the subsequent calls uses JWT and client needs to store the JWT securely
+* Generally, JW tokens will have the expiration date
+* JWT consists of three parts (typically, base64 encoded), namely,
+   a) Header - Consist of at least two paremeters (a) type : JWT (b) Hash algorithm : either </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HS256 or RS256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) Playload - Contains actual information
+   c) Signature = hash(Header + "." + Payload + Key) where as  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (in case of HS256) or public-private key (in case of RS256)
+* Hash algorithms used for generating JWT signature
+   a) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HS256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Uses HMAC-SHA256 as hash function to generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">of the message (i.e. signature) using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RS256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Uses RSA-SHA256 as hash function to generate the hash value of the message (i.e. signature) using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public-private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* In CSSDK project, we use Pthon library https://github.com/jpadilla/pyjwt for generating JWT tokens which supports both types of JWT algorithms </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HS256 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> RS256</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.aeteurope.com/news/digital-signature-digital-certificate/
+https://www.docusign.com/how-it-works/electronic-signature/digital-signature/digital-signature-faq</t>
+  </si>
+  <si>
+    <t>Asymmetric Key Cryptography</t>
+  </si>
+  <si>
+    <t>https://technet.microsoft.com/en-us/library/cc783349(v=ws.10).aspx</t>
+  </si>
+  <si>
+    <t>HTTPS (HTTP over SLL or TLS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">What is Digital Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is an electronic "password" that allows a person, organizaion to exchange data securely over the Internet using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public key infrastructure (PKI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of Digital Certificates:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) Server Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned and installed on the server side and provides the server authentication to the clients 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b) Client Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned by the client and provides the client authentication to the server (typically)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c) Code Signing Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Ownebd by the software developer or the organization. Used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>signing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the software binary files like .exe, .dll, .jar, .apk etc and ensures software came from software  
+        publisher and protects software from alteration after publication. For instance, Download Chrome Installer File (.exe) -&gt;Properties -&gt; Digital Signatures Tab -&gt;Click on Digital Signature -&gt; View 
+       Certificate 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps To Generate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Server Digital Certificate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Certificate Signing Request(CSR) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">file (typically .per file) by providing all the required information for certifcate
+* Generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RSA Public-Private Keys
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Apply for Digital Certificate to any of the trusted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Certificate Authorities (CAs)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* Then CA verifys the information provided in the CSR file, generates the certificate and signs it using provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RSA private key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>* Each and every digital certificates are signed by the trusted CAs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Details about the content of digital certificate - https://www.sslsupportdesk.com/details-digital-certificate-mean/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">How Client Verifies the Server Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* During SSL/TLS handshake process time, server provides its certificate to the client (web browser) and cleint verifys the digital certificate details like domain name, expiry date, signature etc.
+* How client verifys the certificate's signature? client extracts the RSA public key from the certificate (which is embedded inside the certificate) and generates the hash of the signature using extracted public 
+   key and compares against digital certificate signature hash value (embedded inside the certificate)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Self Signed Digital Certificate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* Self signed digital certificates are not created/signed by the CAs instead it's by the developers
+* Self signed digital certifcates are generated and used for testing purpose or if server is not running on the public IP domain (it's public) 
+* Refer this link to how to generate the self signed certificate: https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* HTTPS means, the communication between the client and server is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secure.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> offers three things:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secrecy
+  b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  c) Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All the above three things can be achieved by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic commuincation protocols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>TLS/SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocols provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>verifying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">certificate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>at the client side</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Secrecy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocol encrypts the data (hence data is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) sent over the network using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">asymmetric key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for key exchange) and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> symmetric key algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for bulk data).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cryptographic hash functions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>to generate the MAC of the encrypted data, so in this way both client/server can trust that data is coming from the intended parties</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Man in the middle attack</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>can't</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>modify/alter the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">data as data is encrypted.
+* HTTPS does not mean your data is secure in server, it just means your connection is secure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre-requisites For Running Secure Server</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created/signed by the CAs upon server's owner request
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Private Key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(store securely) - Created as part of step # a)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA Public Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (embedded inside the Digital Cerificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* HTTPS server runs on port 443 (always?)
+* Cipher Suites
+* Public Key Infrastructure (PKI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Secret/Symmetric Key Cryptography</t>
+  </si>
+  <si>
+    <t>CI Builds</t>
+  </si>
+  <si>
+    <t>Nightly Build</t>
+  </si>
+  <si>
+    <t>Release Build</t>
+  </si>
+  <si>
+    <t>Runs for each code checkin  - Build in debug mode, run tests etc. and it's quick/fast build</t>
+  </si>
+  <si>
+    <t>Builds are scheduled to run every night - Bit slow, create package, run detailed tests, deploy and test</t>
+  </si>
+  <si>
+    <t>Triggered manually during release time</t>
+  </si>
+  <si>
+    <t>Check-in Build</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authenticates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secures data transfers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by using certificate-based authentication and symmetric (for data encryption/decryption) &amp; asymmetric (for symmetric key exchange) 
+   keys cryptography.
+* At the client side (browser), TLS/SSL uses asymmetric key (public key) for server authentication and key exchange (during TLS/SSL Handshake process) and use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>symmetric key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(shared secret key)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for bulk encryption since it's faster (at both the side)
+* SSL is depricated and latest TLS version is 1.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How TLS/SSL Handshake Works?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - http://www.moserware.com/2009/06/first-few-milliseconds-of-https.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* In cryptography, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>plaintext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is encrypted into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>ciphertext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, which will in turn (usually) be decrypted back into usable plaintext.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cryptography</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is most closely associated with the development and creation of the mathematical algorithms used to encrypt and decrypt messages.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cryptanalysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is the science of analyzing and breaking encryption schemes. 
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cryptology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is the term referring to the broad study of secret writing, and encompasses both cryptography and cryptanalysis.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of Cryptographic Algorithms:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secret/Symmetric Key Cryptography</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Uses a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>single key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>"secret key"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for both encryption and decryption. Primarily used for data secrecy and confidentiality.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">b) Public/Asymmetric Key Cryptography (PKC): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Uses one key for encryption and another for decryption; Primarily used for authentication, non-repudiation, and key exchange.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cryptographic Hash Functions/One-way Cryptography</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Uses a mathematical transformation to irreversibly (one-way) "encrypt" information, providing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>digital fingerprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+       Primarily used for message integrity like in digital signature.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Same key (referred as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>shared key or secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) is used for both encryption and decryption
+* Secret key cryptography schemes are generally categorized as being either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>stream ciphers or block ciphers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Suitable for large data encryption/decryption since it's faster
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">List of Symmetric Key Cryptographic's Algorithms Implementations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) Data Encryption Standard (DES):
+   b) Advanced Encryption Standard (AES):
+   c) International Data Encryption Algorithm (IDEA):
+   d) Rivest Ciphers (RC1, RC2, RC3, RC4, RC5, RC6): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RC4 stream cipher uses variable-sized keys; it is widely used in commercial cryptography products. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   e) and many more.. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Public-Private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> key pair is used for the encryption and decryption
+* Public key can be used either for encryption or decryption and Private key can be used either for decryption or encryption respectively
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>PKC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> idea was first described (not implemented) publicly by Stanford University professor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Martin Hellman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and graduate student </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Whitfield Diffie
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>List of Asymmetric/Public Key Cryptographic's Algorithms Implementations</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) RSA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The first, and still most common PKC implementation, named after three MIT mathematicians who developed it - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ronald Rivest, Adi Shamir, and Leonard Adleman
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       * RSA today is used in hundreds of software products and can be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>key exchanges, digital signatures, or encryption of small blocks of data</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://doctrina.org/How-RSA-Works-With-Examples.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) Diffie-Hellman (D-H): D-H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>is used for secret-key key exchange only, and not for authentication or digital signatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   c) Digital Signature Algorithm (DSA): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>DSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> provides digital signature capability for the authentication of messages.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">A </t>
     </r>
@@ -3842,10 +6652,86 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> a) MD5 (Message Digest-5)- https://en.wikipedia.org/wiki/MD5 - Produces 128-bit hash value - Not very secure &amp; outdated but can still be used as a checksum to verify data integrity
- b) SHA-1(Secure Hash Algorithm -1) - https://en.wikipedia.org/wiki/SHA-1 - Produces 160-bit hash value - Not very secure &amp; outdated and replaced by SHA-2, SHA-3
- c) SHA-2(Secure Hash Algorithm -2) - https://en.wikipedia.org/wiki/SHA-2 - The SHA-2 family consists of six hash functions with digests (hash values) that are 224, 256, 384 or 512 bits: SHA-224, SHA-256, SHA-384, SHA-512, SHA-512/224, SHA-512/256 - SHA-256 is widely used
- d) SHA-3(Secure Hash Algorithm -3) - https://en.wikipedia.org/wiki/SHA-3
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a) MD5 (Message Digest-5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/MD5 - Produces 128-bit hash value - Not very secure &amp; outdated but can still be used as a checksum to verify data integrity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> b) SHA-1(Secure Hash Algorithm -1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - https://en.wikipedia.org/wiki/SHA-1 - Produces 160-bit hash value - Not very secure &amp; outdated and replaced by SHA-2, SHA-3
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c) SHA-2(Secure Hash Algorithm -2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - https://en.wikipedia.org/wiki/SHA-2 - The SHA-2 family consists of six hash functions with digests (hash values) that are 224, 256, 384 or 512 bits: SHA-224, SHA-256, SHA-384, SHA-512, SHA-512/224, SHA-512/256 - SHA-256 is widely used
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> d) SHA-3(Secure Hash Algorithm -3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - https://en.wikipedia.org/wiki/SHA-3
 </t>
     </r>
     <r>
@@ -3954,7 +6840,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">like JWT
+      <t xml:space="preserve">like JWT, TLS/SSL
  c) Used in </t>
     </r>
     <r>
@@ -3987,1155 +6873,6 @@
       </rPr>
       <t xml:space="preserve">Authenitcation </t>
     </r>
-  </si>
-  <si>
-    <t>https://jwt.io/</t>
-  </si>
-  <si>
-    <t>Hashing Collision</t>
-  </si>
-  <si>
-    <t>Hashing vs Encryption vs Encoding</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it
-https://gcn.com/articles/2013/12/02/hashing-vs-encryption.aspx</t>
-  </si>
-  <si>
-    <t>Message Authentication Codes (MACs)</t>
-  </si>
-  <si>
-    <r>
-      <t>* A M</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>essage Authentication Code (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is a short piece of information(not necessarly be encrypted) used to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>authenticate a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">which is sent/attached along with the message (encrypted/non-encrypted).
-* The MAC provides the Data/Message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (the data/message is not alterered/tampered) &amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(the data/message came from the stated sender )
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data/message integrity &amp; authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is achieved by generating the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAC value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(by using the hash functions) of the</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> data/message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and comparing against recieved MAC value. If both MAC values doesn't match then data/message is changed/tampered and it's not authentic.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is applied to generate the MAC value. In case of HMAC algorithm </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret key"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is used and in case of RSA algorithm "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public-private keys"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are used
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAC Implemention Algorithms:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) HMAC (Hash Based MAC) - X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- https://en.wikipedia.org/wiki/Hash-based_message_authentication_code 
-        * HMAC is a specific type of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>message authentication code (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> involving a cryptographic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hash function </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(like SHA-1, SHA-2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret cryptographic key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-        * Any cryptographic hash function, such as MD5 or SHA-1, may be used in the calculation of an HMAC; 
-        * The resulting MAC algorithm is termed HMAC-X, where X is the hash function used e.g.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> HMAC-MD5 or HMAC-SHA1, HMAC-SHA2
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HMAC algorithm doesn't provide </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>encryption</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) RSA (Rivest–Shamir–Adleman) - X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- https://en.wikipedia.org/wiki/RSA_(cryptosystem)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Server authenticates the client by using client provided credentials such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Name &amp; Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> JWT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-* Always use HTTPS connection (as credentials will be encrypted).
-* Generally Webscoket connection uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Name and Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> as credentials where as RESTful connection uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>JW token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* JWT is generated by the server upon client's request. Server maintains the list of generated JW tokens to verify the JWT
-* For the first time, client generates the JWT by providing user name and password (only one time) and for the subsequent calls uses JWT and client needs to store the JWT securely
-* Generally, JW tokens will have the expiration date
-* JWT consists of three parts, namely,
-   a) Header
-   b) Playload
-   c) Signature = hash(Header + "." + Payload + Key) here Key can be secret key (in case of HS256) or public-private key (in case of RS256)
-* JWT algorithms
-   a) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HS256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Uses HMAC-SHA256 as hash function to generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hash value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">of the message (i.e. signature) using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RS256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Uses RSA-SHA256 as hash function to generate the hash value of the message (i.e. signature) using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public-private key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* In CSSDK project, we use Pthon library https://github.com/jpadilla/pyjwt for generating JWT tokens which supports both types of JWT algorithms </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HS256 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RS256</t>
-    </r>
-  </si>
-  <si>
-    <t>Cryptographic Encryption/decryption</t>
-  </si>
-  <si>
-    <t>Cipher</t>
-  </si>
-  <si>
-    <t>Encrypted text is called as Cipher text</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HTTPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> offers three things:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Secrecy
-  b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  c) Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-All the above three things can be achieved by using cryptographic commuincation protocols such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>SSL and TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocols provides the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>verifying</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">server provided </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>certificate.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Integrity &amp; Secrecy:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  SSL/TSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocol encrypts the data (data is secret) sent over the network using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HMAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or by using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA algorithm's</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Public-Private key pair. Man in the middle attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>can't</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>modify/alter the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>data as data is encrypted.
-* HTTPS does not mean your data is secure, it just means your connection is secure.</t>
-    </r>
-  </si>
-  <si>
-    <t>Doker Hub</t>
-  </si>
-  <si>
-    <t>Docker Image</t>
-  </si>
-  <si>
-    <t>Docker Container</t>
-  </si>
-  <si>
-    <t>Run Docker image in a  Docker Container</t>
-  </si>
-  <si>
-    <t>Docker Image Build</t>
-  </si>
-  <si>
-    <t>Docker Image Push</t>
-  </si>
-  <si>
-    <t>Docker Image Pull</t>
-  </si>
-  <si>
-    <t>Docker File</t>
-  </si>
-  <si>
-    <t>Docker Composer</t>
   </si>
 </sst>
 </file>
@@ -5460,7 +7197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5812,6 +7549,162 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5839,162 +7732,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6079,6 +7816,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6384,18 +8128,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="69.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="89.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="10"/>
@@ -6414,137 +8415,135 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="192" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="A4" s="197"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="192" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="11"/>
+      <c r="A8" s="195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="192" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="11"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="1"/>
@@ -6552,241 +8551,68 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="195" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="192" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="197"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="192" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="197"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="195" t="s">
+      <c r="A14" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B14" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="197"/>
-      <c r="B14" s="194"/>
-      <c r="C14" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="195" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="192" t="s">
-        <v>188</v>
-      </c>
+      <c r="A16" s="197"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="197"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="11" t="s">
-        <v>236</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="192" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="106" t="s">
-        <v>241</v>
-      </c>
+      <c r="A19" s="197"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
@@ -6799,10 +8625,16 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="106" t="s">
+        <v>241</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
@@ -6810,23 +8642,41 @@
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
+  <mergeCells count="10">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6870,18 +8720,18 @@
     </row>
     <row r="2" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="115"/>
       <c r="F2" s="116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -6892,14 +8742,14 @@
         <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="110" t="s">
         <v>278</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>280</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -6907,31 +8757,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="192" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="110" t="s">
         <v>282</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>284</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="116" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="205"/>
       <c r="B5" s="206"/>
       <c r="C5" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="117" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6947,13 +8797,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="192" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="116"/>
@@ -6962,14 +8812,14 @@
       <c r="A8" s="205"/>
       <c r="B8" s="206"/>
       <c r="C8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E8" s="115"/>
       <c r="F8" s="116" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7033,7 +8883,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="115"/>
@@ -7045,13 +8895,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="119" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7368,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -7474,7 +9324,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -7486,7 +9336,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -7581,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="113" t="s">
@@ -7696,254 +9546,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>198</v>
+      <c r="B4" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="11"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8011,13 +9789,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="127" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -8038,9 +9816,9 @@
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="152"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="50" t="s">
         <v>38</v>
       </c>
@@ -8057,9 +9835,9 @@
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="152"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -8074,9 +9852,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="152"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -8091,9 +9869,9 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="152"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -8108,9 +9886,9 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="153"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
@@ -8138,13 +9916,13 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
@@ -8159,9 +9937,9 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="155"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="60" t="s">
         <v>41</v>
       </c>
@@ -8176,9 +9954,9 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="155"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
@@ -8193,9 +9971,9 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="167"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="155"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
@@ -8210,9 +9988,9 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="156"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
@@ -8240,13 +10018,13 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="157"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="71" t="s">
         <v>51</v>
       </c>
@@ -8261,9 +10039,9 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="158"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="71" t="s">
         <v>52</v>
       </c>
@@ -8278,9 +10056,9 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="71" t="s">
         <v>53</v>
       </c>
@@ -8295,9 +10073,9 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="173"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="158"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
@@ -8312,9 +10090,9 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="158"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
@@ -8329,9 +10107,9 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="158"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
@@ -8346,9 +10124,9 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="158"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
@@ -8363,9 +10141,9 @@
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="159"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="71" t="s">
         <v>57</v>
       </c>
@@ -8393,13 +10171,13 @@
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="163" t="s">
+      <c r="A26" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="160"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
@@ -8414,9 +10192,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="161"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
@@ -8431,9 +10209,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="161"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
@@ -8456,9 +10234,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="161"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
@@ -8473,9 +10251,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="164"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="161"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="54" t="s">
         <v>62</v>
       </c>
@@ -8490,9 +10268,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="161"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="137"/>
       <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
@@ -8507,9 +10285,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="161"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="54" t="s">
         <v>64</v>
       </c>
@@ -8524,9 +10302,9 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="164"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="161"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="54" t="s">
         <v>65</v>
       </c>
@@ -8541,9 +10319,9 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="162"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
@@ -8605,13 +10383,13 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="145"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="78" t="s">
         <v>69</v>
       </c>
@@ -8626,9 +10404,9 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="149"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="78" t="s">
         <v>70</v>
       </c>
@@ -8643,9 +10421,9 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="149"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="146"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="78" t="s">
         <v>71</v>
       </c>
@@ -8660,9 +10438,9 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="146"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="78" t="s">
         <v>72</v>
       </c>
@@ -8677,9 +10455,9 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="149"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="146"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="78" t="s">
         <v>74</v>
       </c>
@@ -8694,9 +10472,9 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="149"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="122"/>
       <c r="D43" s="78" t="s">
         <v>75</v>
       </c>
@@ -8711,9 +10489,9 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="78" t="s">
         <v>76</v>
       </c>
@@ -8728,9 +10506,9 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="78" t="s">
         <v>77</v>
       </c>
@@ -8758,13 +10536,13 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130" t="s">
+      <c r="A47" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="133"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="84" t="s">
         <v>78</v>
       </c>
@@ -8783,9 +10561,9 @@
       <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="134"/>
+      <c r="A48" s="159"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="162"/>
       <c r="D48" s="84" t="s">
         <v>79</v>
       </c>
@@ -8800,9 +10578,9 @@
       <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="134"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="162"/>
       <c r="D49" s="84" t="s">
         <v>80</v>
       </c>
@@ -8817,9 +10595,9 @@
       <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="135"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="163"/>
       <c r="D50" s="84"/>
       <c r="E50" s="85"/>
       <c r="F50" s="85"/>
@@ -8843,13 +10621,13 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="139" t="s">
+      <c r="A52" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="142"/>
+      <c r="C52" s="170"/>
       <c r="D52" s="81" t="s">
         <v>85</v>
       </c>
@@ -8864,9 +10642,9 @@
       <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="143"/>
+      <c r="A53" s="168"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="171"/>
       <c r="D53" s="81" t="s">
         <v>86</v>
       </c>
@@ -8881,9 +10659,9 @@
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="143"/>
+      <c r="A54" s="168"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="171"/>
       <c r="D54" s="81" t="s">
         <v>87</v>
       </c>
@@ -8898,9 +10676,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="141"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="144"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="172"/>
       <c r="D55" s="81" t="s">
         <v>88</v>
       </c>
@@ -8928,13 +10706,13 @@
       <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="136"/>
+      <c r="C57" s="164"/>
       <c r="D57" s="64" t="s">
         <v>81</v>
       </c>
@@ -8949,9 +10727,9 @@
       <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="137"/>
+      <c r="A58" s="180"/>
+      <c r="B58" s="180"/>
+      <c r="C58" s="165"/>
       <c r="D58" s="64" t="s">
         <v>84</v>
       </c>
@@ -8966,9 +10744,9 @@
       <c r="K58" s="65"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="137"/>
+      <c r="A59" s="180"/>
+      <c r="B59" s="180"/>
+      <c r="C59" s="165"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -8983,9 +10761,9 @@
       <c r="K59" s="65"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="138"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="166"/>
       <c r="D60" s="64" t="s">
         <v>82</v>
       </c>
@@ -9013,13 +10791,13 @@
       <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="121" t="s">
+      <c r="B62" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="124"/>
+      <c r="C62" s="176"/>
       <c r="D62" s="88" t="s">
         <v>163</v>
       </c>
@@ -9034,9 +10812,9 @@
       <c r="K62" s="89"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="122"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="125"/>
+      <c r="A63" s="174"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="177"/>
       <c r="D63" s="88" t="s">
         <v>164</v>
       </c>
@@ -9051,9 +10829,9 @@
       <c r="K63" s="89"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="122"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="125"/>
+      <c r="A64" s="174"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="177"/>
       <c r="D64" s="91"/>
       <c r="E64" s="89"/>
       <c r="F64" s="89"/>
@@ -9066,9 +10844,9 @@
       <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="123"/>
-      <c r="B65" s="123"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="175"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="178"/>
       <c r="D65" s="91"/>
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
@@ -9083,6 +10861,18 @@
   </sheetData>
   <autoFilter ref="J3:J60"/>
   <mergeCells count="27">
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="A38:A45"/>
@@ -9098,18 +10888,6 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" r:id="rId1" display="http://interactivepython.org/runestone/static/pythonds/Trees/PriorityQueueswithBinaryHeaps.html"/>
@@ -9901,7 +11679,7 @@
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -10123,17 +11901,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="178.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -10148,219 +11926,280 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="358.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>272</v>
+      <c r="B2" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D2" s="111" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>274</v>
+      <c r="B3" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>268</v>
+      <c r="B4" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="280.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="111"/>
+    </row>
+    <row r="5" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>302</v>
+      <c r="B5" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="111"/>
+    </row>
+    <row r="6" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="210" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="111"/>
+    </row>
+    <row r="7" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="210" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="111"/>
+    </row>
+    <row r="8" spans="1:4" ht="343.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="210" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="211" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C11" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="111"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="111"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C13" s="110"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="108" t="s">
         <v>260</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="110" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>301</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="108" t="s">
+        <v>261</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>299</v>
+      <c r="A16" s="8"/>
+      <c r="B16" s="108" t="s">
+        <v>262</v>
       </c>
       <c r="C16" s="110"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="110"/>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>265</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="110"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>313</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>310</v>
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>325</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>273</v>
+      <c r="A20" s="8"/>
+      <c r="B20" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="212"/>
+      <c r="B25" s="108" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3" display="Salted Password Hashing"/>
-    <hyperlink ref="B15" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6" display="https://www.lifewire.com/cryptographic-hash-function-2625832"/>
-    <hyperlink ref="B7" r:id="rId7" display="Message Authentication Codes(MACs)"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="C19" r:id="rId9" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3" display="Salted Password Hashing"/>
+    <hyperlink ref="B20" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5" display="Message Authentication Codes(MACs)"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="C24" r:id="rId7" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
+    <hyperlink ref="C22" r:id="rId8" display="https://www.aeteurope.com/news/digital-signature-digital-certificate/"/>
+    <hyperlink ref="B3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="B5" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12" location="pkc"/>
+    <hyperlink ref="B6" r:id="rId13" location="skc"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15" display="https://www.lifewire.com/cryptographic-hash-function-2625832"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="350">
   <si>
     <t>Sl.No</t>
   </si>
@@ -3070,544 +3070,6 @@
     <t>Password Hashing</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How To Protect User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-At the server side, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can be secured by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashing the passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and storing the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashed passswords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> instead of the plain-text password in user credentials database.
-Following cryptographic password hashing techniques are used to hash the passwords by using cryptographic hash functions/algorithms like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>MD5, SHA-1, SHA-2, SHA-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and so on,
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Simple Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Passwords are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> using any of the cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Salted Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">is appended/prepended to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">and it's unique to per user-per password
-    * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">will be stored along with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hash</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">in a user account's database
-    * Don't reuse the Salt and must be at least the size of the hash
-    * Relatively secure (not 100% secure) and can be cracked using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables or Rainbow Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> techniques however slow to crack.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How Hashes are Cracked</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reverse Lookup Tables:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rainbow Tables:</t>
-    </r>
-  </si>
-  <si>
     <t>Digital Signatures</t>
   </si>
   <si>
@@ -3615,9 +3077,6 @@
 https://en.wikipedia.org/wiki/Secure_Hash_Algorithms</t>
   </si>
   <si>
-    <t>https://jwt.io/</t>
-  </si>
-  <si>
     <t>Hashing Collision</t>
   </si>
   <si>
@@ -3629,426 +3088,6 @@
   </si>
   <si>
     <t>Message Authentication Codes (MACs)</t>
-  </si>
-  <si>
-    <r>
-      <t>* A M</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>essage Authentication Code (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is a short piece of information(not necessarly be encrypted) used to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>authenticate a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">which is sent/attached along with the message (encrypted/non-encrypted).
-* The MAC provides the Data/Message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (the data/message is not alterered/tampered) &amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(the data/message came from the stated sender )
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data/message integrity &amp; authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is achieved by generating the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAC value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(by using the hash functions) of the</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> data/message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and comparing against recieved MAC value. If both MAC values doesn't match then data/message is changed/tampered and it's not authentic.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is applied to generate the MAC value. In case of HMAC algorithm </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret key"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is used and in case of RSA algorithm "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public-private keys"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are used
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAC Implemention Algorithms:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) HMAC (Hash Based MAC) - X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- https://en.wikipedia.org/wiki/Hash-based_message_authentication_code 
-        * HMAC is a specific type of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>message authentication code (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> involving a cryptographic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hash function </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(like SHA-1, SHA-2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret cryptographic key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-        * Any cryptographic hash function, such as MD5 or SHA-1, may be used in the calculation of an HMAC; 
-        * The resulting MAC algorithm is termed HMAC-X, where X is the hash function used e.g.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> HMAC-MD5 or HMAC-SHA1, HMAC-SHA2
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HMAC algorithm doesn't provide </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>encryption</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) RSA (Rivest–Shamir–Adleman) - X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- https://en.wikipedia.org/wiki/RSA_(cryptosystem)
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4140,9 +3179,6 @@
     <t>Cipher</t>
   </si>
   <si>
-    <t>Encrypted text is called as Cipher text</t>
-  </si>
-  <si>
     <t>Doker Hub</t>
   </si>
   <si>
@@ -4197,205 +3233,6 @@
     <t>Digital Certificate</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* JWT is generated by the server upon client's request. Server maintains the list of generated JW tokens to verify the requested JWT
-* For the first time, client requests JWT by providing user name and password (only one time) to the server and for the subsequent calls uses JWT and client needs to store the JWT securely
-* Generally, JW tokens will have the expiration date
-* JWT consists of three parts (typically, base64 encoded), namely,
-   a) Header - Consist of at least two paremeters (a) type : JWT (b) Hash algorithm : either </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HS256 or RS256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) Playload - Contains actual information
-   c) Signature = hash(Header + "." + Payload + Key) where as  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (in case of HS256) or public-private key (in case of RS256)
-* Hash algorithms used for generating JWT signature
-   a) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HS256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Uses HMAC-SHA256 as hash function to generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hash value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">of the message (i.e. signature) using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RS256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Uses RSA-SHA256 as hash function to generate the hash value of the message (i.e. signature) using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public-private key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* In CSSDK project, we use Pthon library https://github.com/jpadilla/pyjwt for generating JWT tokens which supports both types of JWT algorithms </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HS256 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> RS256</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.aeteurope.com/news/digital-signature-digital-certificate/
 https://www.docusign.com/how-it-works/electronic-signature/digital-signature/digital-signature-faq</t>
   </si>
@@ -4407,1231 +3244,6 @@
   </si>
   <si>
     <t>HTTPS (HTTP over SLL or TLS)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">What is Digital Certificate?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Digital Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is an electronic "password" that allows a person, organizaion to exchange data securely over the Internet using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public key infrastructure (PKI)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Types of Digital Certificates:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) Server Digital Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Owned and installed on the server side and provides the server authentication to the clients 
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>b) Client Digital Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Owned by the client and provides the client authentication to the server (typically)
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>c) Code Signing Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Ownebd by the software developer or the organization. Used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>signing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the software binary files like .exe, .dll, .jar, .apk etc and ensures software came from software  
-        publisher and protects software from alteration after publication. For instance, Download Chrome Installer File (.exe) -&gt;Properties -&gt; Digital Signatures Tab -&gt;Click on Digital Signature -&gt; View 
-       Certificate 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Steps To Generate </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Server Digital Certificate:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Create </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Certificate Signing Request(CSR) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">file (typically .per file) by providing all the required information for certifcate
-* Generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">RSA Public-Private Keys
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Apply for Digital Certificate to any of the trusted </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Certificate Authorities (CAs)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-* Then CA verifys the information provided in the CSR file, generates the certificate and signs it using provided </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">RSA private key
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>* Each and every digital certificates are signed by the trusted CAs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Details about the content of digital certificate - https://www.sslsupportdesk.com/details-digital-certificate-mean/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">How Client Verifies the Server Certificate?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* During SSL/TLS handshake process time, server provides its certificate to the client (web browser) and cleint verifys the digital certificate details like domain name, expiry date, signature etc.
-* How client verifys the certificate's signature? client extracts the RSA public key from the certificate (which is embedded inside the certificate) and generates the hash of the signature using extracted public 
-   key and compares against digital certificate signature hash value (embedded inside the certificate)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Self Signed Digital Certificate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* Self signed digital certificates are not created/signed by the CAs instead it's by the developers
-* Self signed digital certifcates are generated and used for testing purpose or if server is not running on the public IP domain (it's public) 
-* Refer this link to how to generate the self signed certificate: https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* HTTPS means, the communication between the client and server is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secure.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HTTPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> offers three things:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Secrecy
-  b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  c) Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-All the above three things can be achieved by using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>cryptographic commuincation protocols</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>TLS/SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocols provides the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>verifying</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">server provided </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">certificate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>at the client side</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Secrecy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:  TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocol encrypts the data (hence data is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) sent over the network using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">asymmetric key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(for key exchange) and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> symmetric key algorithm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(for bulk data).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">cryptographic hash functions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>to generate the MAC of the encrypted data, so in this way both client/server can trust that data is coming from the intended parties</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Man in the middle attack</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>can't</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>modify/alter the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">data as data is encrypted.
-* HTTPS does not mean your data is secure in server, it just means your connection is secure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre-requisites For Running Secure Server</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Digital Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Created/signed by the CAs upon server's owner request
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Private Key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(store securely) - Created as part of step # a)
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>c)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA Public Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (embedded inside the Digital Cerificate)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* HTTPS server runs on port 443 (always?)
-* Cipher Suites
-* Public Key Infrastructure (PKI)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Cryptography</t>
@@ -6263,7 +3875,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>List of Asymmetric/Public Key Cryptographic's Algorithms Implementations</t>
+      <t>List of Asymmetric/Public Key Cryptographic's Algorithms Implementations:</t>
     </r>
     <r>
       <rPr>
@@ -6431,6 +4043,389 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Encrypted text is called as Cipher text
+* Stream Cipher
+* Block Cipher
+</t>
+  </si>
+  <si>
+    <t>https://security.stackexchange.com/questions/32114/what-is-the-difference-between-a-mac-and-a-digital-signiture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Message Authentication Code (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> provides the message's/data's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>integrity or authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (i.e. mesaage is not tempered or altered and it's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>authentic</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is sent/attached along with the original message/data (data can be encrypted/non-encrypted).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC can also be used for verifying the sender's identity (along with message integrtity/authenticity verification) howver it's not recommended as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* How to compute the MAC? 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">MAC = mac_generation_algorithm(Message, Key) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">secret/symmetric key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(always?)
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAC Implemention Algorithms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - http://www.crypto-it.net/eng/theory/mac.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) HMAC (Hash Based MAC) - X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- https://en.wikipedia.org/wiki/Hash-based_message_authentication_code 
+        * Uses cryptographic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(e.g. MD5, SHA-1, SHA-2 etc.) to compute the MAC value (along with secret key).
+        * The resulting MAC algorithm is termed HMAC-X, where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is the hash function used e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> HMAC-MD5, HMAC-SHA1, HMAC-SHA2 etc.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HMAC-X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is a well known MAC algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) CBC, NMAC, CMAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> technique and secure pseudorandom function (PRF) to compute the MAC value (along with secret key).</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">A </t>
     </r>
@@ -6682,7 +4677,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> b) SHA-1(Secure Hash Algorithm -1)</t>
+      <t xml:space="preserve"> b) SHA-1 (Secure Hash Algorithm -1)</t>
     </r>
     <r>
       <rPr>
@@ -6702,16 +4697,36 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>c) SHA-2(Secure Hash Algorithm -2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - https://en.wikipedia.org/wiki/SHA-2 - The SHA-2 family consists of six hash functions with digests (hash values) that are 224, 256, 384 or 512 bits: SHA-224, SHA-256, SHA-384, SHA-512, SHA-512/224, SHA-512/256 - SHA-256 is widely used
+      <t>c) SHA-2 (Secure Hash Algorithm -2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - https://en.wikipedia.org/wiki/SHA-2 - The SHA-2 family consists of six hash functions with digests (hash values) that are 224, 256, 384 or 512 bits:
+     SHA-224, SHA-256, SHA-384, SHA-512, SHA-512/224, SHA-512/256 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>SHA-256 is widely used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -6722,7 +4737,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> d) SHA-3(Secure Hash Algorithm -3)</t>
+      <t xml:space="preserve"> d) SHA-3 (Secure Hash Algorithm -3)</t>
     </r>
     <r>
       <rPr>
@@ -6790,7 +4805,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>The applications/uses of cryptographic hash functions:</t>
+      <t>The applications/uses of cryptographic hash functions are:</t>
     </r>
     <r>
       <rPr>
@@ -6840,7 +4855,26 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">like JWT, TLS/SSL
+      <t>e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> HMAC-SHA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
  c) Used in </t>
     </r>
     <r>
@@ -6872,6 +4906,2658 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">Authenitcation </t>
+    </r>
+  </si>
+  <si>
+    <t>https://jwt.io/
+https://auth0.com/blog/json-web-token-signing-algorithms-overview/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* JWT is generated by the server upon client's request.
+* Server maintains the list of generated JW tokens to verify the requested JWT
+* For the first time, client requests JWT by providing user name and password (only one time) to the server and for the subsequent REST API calls uses JWT
+* Client needs to store the JWT securely
+* Generally, JW tokens will have the expiration date
+* JWT is usually complemented with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">signature or encryption
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Signature based JWT 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">In Signature based JWT a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is attached along with the actual JWT content i.e. JWT Header. JWT Payload. JWT Signature 
+     * A signature allows a JWT to be validated against the modifications i.e. header &amp; payload is not tampered or altered
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Encryption based JWT
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>In Encryption based</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">JWT the entire contents of the JWT is encrypted
+    * Encryption makes sure the content of the JWT is only readable by certain parties and it's secured
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Encryption + Signature based JWT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   * Signed and encrypted JWTs are usually nested. That means that a signed JWT is first produced and then an encrypted version of the signed result is then created.
+   * Benefits of using signed and encrypted JWTs are,
+        * The signature can't be stripped.
+        * The signature is private (can't be seen by others).
+* Signature based JWT is widely / commonly used JWT type 
+* Signature based JWT consists of three parts (typically, base64 encoded), namely,
+   a) Header - Consist of at least two paremeters (a) type : JWT (b) JWT signing algorithm : HS256 or RS256 or ES256 (commonly used but not limited to this)
+   b) Playload - Contains actual information
+   c) Signature = hash(Header + "." + Payload + Key) where as  Key is secret key (in case of HS256) or private /public key (in case of RS256 or ECDSA)
+* Commonly used JWT Signing Algorithms are,
+   a) HS256 - Uses HMAC-SHA256 algorithm to generate the hash value of the message (i.e. signature) using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) RS256 - Uses RSA-SHA256 algorithm to generate the hash value of the message (i.e. signature) using the RSA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">public-private keys
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">c) ES256 - Uses ECDSA algorithm to generate the hash value (????) of the message (i.e. signature) using the public-private key 
+* In CSSDK project, we use Pthon library https://github.com/jpadilla/pyjwt for generating JWT tokens which supports both types of JWT algorithms HS256 and RS256
+* How to generate keys - https://dzone.com/articles/brute-forcing-hs256-is-possible-the-importance-of
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How To Protect User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* At the server side, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can be secured by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashing the passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and storing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed passswords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> instead of the plain-text password in user credentials database.
+* Following cryptographic password hashing techniques are used to hash the passwords by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic hash functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MD5, SHA-1, SHA-2, SHA-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and so on,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Passwords are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using any of the cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Salted Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is appended/prepended to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(acts like secret key) and it's unique to per user-per password
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">will be stored along with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">in a user account's database
+    * HMAC-SHA256 algorithm used for generating hash of the password
+    * Don't reuse the Salt for other passwords and must be at least the size of the hash
+    * Relatively secure (not 100% secure) and can be cracked using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables or Rainbow Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> techniques however slow to crack.
+    * In CSSDK project we are using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hashlib </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">python library </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hashlib.pbkdf2_hmac(hash_name, password, salt, iterations, dklen=None) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://docs.python.org/3/library/hashlib.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How Hashes are Cracked</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reverse Lookup Tables:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rainbow Tables:</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs
+https://www.sslsupportdesk.com/details-digital-certificate-mean/
+https://www.akadia.com/services/ssh_test_certificate.html
+https://www.sslshopper.com/article-how-to-create-a-self-signed-certificate.html
+https://docs.oracle.com/cd/E19509-01/820-3503/ggbgc/index.html
+https://en.wikipedia.org/wiki/Public_key_certificate
+https://www.digicert.com/blog/where-is-your-private-key/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* HTTPS means, the communication between the client and server is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secure.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> offers three things:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secrecy
+  b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  c) Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All the above three things can be achieved by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic commuincation protocols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>TLS/SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocols provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>verifying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate (SSL certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>at the client side</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Secrecy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocol encrypts the data (hence data is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) sent over the network using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">asymmetric key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for key exchange) and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> symmetric key algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for bulk data).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cryptographic hash functions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>to generate the MAC of the encrypted data, so in this way both client/server can trust that data is coming from the intended parties</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Man in the middle attack</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>can't</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>modify/alter the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">data as data is encrypted.
+* HTTPS does not mean your data is secure in server, it just means your connection is secure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre-requisites For Running Secure Server</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate (a.k.a SSL Certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created &amp; signed by the CAs upon CSR
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Private Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Private Key) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Created by the server's owner during CSR time and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">stored securely by the server owner 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Public Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA Public Key)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - Derived fom the server's private key by the CA and embedded inside the server cerificate - server doesn't use public key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Server's private-public keys are used for the encryption-decryption during the TLS/SSL handshake time to generate &amp; exchange the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">secret key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(for data encryption-decryption)
+* HTTPS server runs on port 443 (always?)
+* Cipher Suites
+* Public Key Infrastructure (PKI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">What is Digital Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is an electronic "password" that allows a person, organizaion to exchange data securely over the Internet using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public key infrastructure (PKI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of Digital Certificates:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) Server Certificate (SSL Certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned and installed on the server side and provides the server authentication to the clients 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b) Client Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned by the client and provides the client authentication to the server (typically)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c) Code Signing Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Ownebd by the software developer or the organization. Used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>signing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the software binary files like .exe, .dll, .jar, .apk etc and ensures software came from software  
+        publisher and protects software from alteration after publication. For instance, Download Chrome Installer File (.exe) -&gt;Properties -&gt; Digital Signatures Tab -&gt;Click on Digital Signature -&gt; View 
+       Certificate 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Types of Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) CA-Signed Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created and signed by the CAs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   b) Self-Signed Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created by the developers for testing purpose 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps To Generate the Signed Server Certificate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server's Owner Role:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (RSA private key)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Create the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Certificate Signing Request (CSR) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(typically a .pem file) by providing all the required information for the certifcate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Apply for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to any of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trusted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Certificate Authorities (CAs)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>CA's Role:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  * Verifies the information provided in the CSR file.
+  * If everything looks good then CA creates and signs the certificate using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>its (CAs) private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (not server's private key); this part is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Certificate's Signature.
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Each and every digital certificates are signed by the trusted CAs using their private keys
+  * Generates/derives the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server's public key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server's private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and embeds the server's public key in to the certificate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>* Server's gets the CA-Signed Server Certificate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Details about the content of digital certificate - https://www.sslsupportdesk.com/details-digital-certificate-mean/
+* Server certificate and server's private key will be used during the secure communication by the TLS/SSL library at the server side.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Uses of Server Cerificate, Server's Public - Private Keys and Secret Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* Server Certificate - During the TLS/SSL handshake process time, client verifies the server's authenticity by using the server provided certificate.
+* Server's Public Key - During the TLS/SSL handshake process time client, 
+      * Generates the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">symmetric key/secret key.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Encrypts the newly generated secret key using the server's public key (obtained from the certifcate) and sends it to the server.
+* Server's Priavte Key -  During the TLS/SSL handshake process time, server receives the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>encrypted secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from the client and decrypts using its private key and gets the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">secret key.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Secret Key - Used by the server and client for the data encryption-decryption.
+* All these above steps handled by the TLS/SSL library at both server and client side.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">How Client/Browser Verifies the Server's Authenticity/Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* During the SSL/TLS handshake process time, server provides its certificate to the client (web browser) 
+* Client checks/verifies the digital certificate details like,
+   * Certificate is signed or not - If certificate is not signed then it's considered as invalid and connection will be dropped.
+   * Cerficate issuer &amp; signature - Certificate must be issued &amp; signed by the list of trusted CAs.
+        * Each and every browser pre-installed with the list of trusted CAs along with their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public keys</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>so</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>certifcate issuer must be one among from the list.
+        *  But how to be sure that certificate is issued by trusted CA?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ans:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">By verifying the certificate signature as follows,
+        * 
+* How client verifys the certificate's signature? client extracts the RSA public key from the certificate (which is embedded inside the certificate) and generates the hash of the signature using extracted public 
+   key and compares against digital certificate signature hash value (embedded inside the certificate).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Self Signed Digital Certificate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* Self signed digital certificates are not created/signed by the CAs instead it's by the developers.
+* Self signed digital certifcates are generated and used for testing purpose or if server is not running on the public IP domain (it's public) .
+* Refer this link to how to generate the self signed certificate: https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs.
+</t>
     </r>
   </si>
 </sst>
@@ -7549,6 +8235,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7816,13 +8509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8415,10 +9101,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="195" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -8429,8 +9115,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="193"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="11" t="s">
         <v>226</v>
       </c>
@@ -8439,8 +9125,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="197"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="11" t="s">
         <v>227</v>
       </c>
@@ -8449,50 +9135,50 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="192" t="s">
-        <v>336</v>
+      <c r="B5" s="195" t="s">
+        <v>329</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
-      <c r="B6" s="193"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="196"/>
       <c r="C6" s="11" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="197"/>
-      <c r="B7" s="194"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="11" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="195" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -8503,8 +9189,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="193"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="11" t="s">
         <v>230</v>
       </c>
@@ -8513,8 +9199,8 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="193"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="11" t="s">
         <v>228</v>
       </c>
@@ -8523,8 +9209,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="193"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="11" t="s">
         <v>229</v>
       </c>
@@ -8533,8 +9219,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="197"/>
-      <c r="B12" s="194"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="11" t="s">
         <v>233</v>
       </c>
@@ -8551,10 +9237,10 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="201" t="s">
         <v>239</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -8565,8 +9251,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="11" t="s">
         <v>234</v>
       </c>
@@ -8575,8 +9261,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="197"/>
-      <c r="B16" s="194"/>
+      <c r="A16" s="200"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="11" t="s">
         <v>235</v>
       </c>
@@ -8593,10 +9279,10 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="195" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -8607,8 +9293,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
-      <c r="B19" s="194"/>
+      <c r="A19" s="200"/>
+      <c r="B19" s="197"/>
       <c r="C19" s="11" t="s">
         <v>236</v>
       </c>
@@ -8753,10 +9439,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="195" t="s">
         <v>280</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8771,8 +9457,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
-      <c r="B5" s="206"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="3" t="s">
         <v>284</v>
       </c>
@@ -8793,10 +9479,10 @@
       <c r="F6" s="116"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="195" t="s">
         <v>287</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -8809,8 +9495,8 @@
       <c r="F7" s="116"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="3" t="s">
         <v>290</v>
       </c>
@@ -9228,10 +9914,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="210" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9244,8 +9930,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="11" t="s">
         <v>244</v>
       </c>
@@ -9256,8 +9942,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="197"/>
-      <c r="B5" s="197"/>
+      <c r="A5" s="200"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="11" t="s">
         <v>245</v>
       </c>
@@ -9268,10 +9954,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="211" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -9284,8 +9970,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="197"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="11" t="s">
         <v>252</v>
       </c>
@@ -9580,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -9592,7 +10278,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="8"/>
@@ -9604,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="8"/>
@@ -9616,7 +10302,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="8"/>
@@ -9628,7 +10314,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="1"/>
@@ -9640,7 +10326,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="1"/>
@@ -9652,7 +10338,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="1"/>
@@ -9664,7 +10350,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
@@ -9676,7 +10362,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -9789,13 +10475,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="130" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -9816,9 +10502,9 @@
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="128"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="50" t="s">
         <v>38</v>
       </c>
@@ -9835,9 +10521,9 @@
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="128"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -9852,9 +10538,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="128"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -9869,9 +10555,9 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="128"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -9886,9 +10572,9 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
@@ -9916,13 +10602,13 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="130"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
@@ -9937,9 +10623,9 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="131"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="60" t="s">
         <v>41</v>
       </c>
@@ -9954,9 +10640,9 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
@@ -9971,9 +10657,9 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="131"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
@@ -9988,9 +10674,9 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="132"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
@@ -10018,13 +10704,13 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="71" t="s">
         <v>51</v>
       </c>
@@ -10039,9 +10725,9 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="71" t="s">
         <v>52</v>
       </c>
@@ -10056,9 +10742,9 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="134"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="71" t="s">
         <v>53</v>
       </c>
@@ -10073,9 +10759,9 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="134"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
@@ -10090,9 +10776,9 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="134"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
@@ -10107,9 +10793,9 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="149"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="134"/>
+      <c r="A22" s="152"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
@@ -10124,9 +10810,9 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="134"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
@@ -10141,9 +10827,9 @@
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="135"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="71" t="s">
         <v>57</v>
       </c>
@@ -10171,13 +10857,13 @@
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="136"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
@@ -10192,9 +10878,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="137"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
@@ -10209,9 +10895,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="137"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
@@ -10234,9 +10920,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="137"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
@@ -10251,9 +10937,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="137"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="54" t="s">
         <v>62</v>
       </c>
@@ -10268,9 +10954,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="137"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
@@ -10285,9 +10971,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="137"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="54" t="s">
         <v>64</v>
       </c>
@@ -10302,9 +10988,9 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="137"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="54" t="s">
         <v>65</v>
       </c>
@@ -10319,9 +11005,9 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="141"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="138"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="141"/>
       <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
@@ -10383,13 +11069,13 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="124" t="s">
+      <c r="B38" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="121"/>
+      <c r="C38" s="124"/>
       <c r="D38" s="78" t="s">
         <v>69</v>
       </c>
@@ -10404,9 +11090,9 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="122"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="78" t="s">
         <v>70</v>
       </c>
@@ -10421,9 +11107,9 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="122"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="125"/>
       <c r="D40" s="78" t="s">
         <v>71</v>
       </c>
@@ -10438,9 +11124,9 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="122"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="78" t="s">
         <v>72</v>
       </c>
@@ -10455,9 +11141,9 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="122"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="78" t="s">
         <v>74</v>
       </c>
@@ -10472,9 +11158,9 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="122"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="78" t="s">
         <v>75</v>
       </c>
@@ -10489,9 +11175,9 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="122"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="78" t="s">
         <v>76</v>
       </c>
@@ -10506,9 +11192,9 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="126"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="123"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="78" t="s">
         <v>77</v>
       </c>
@@ -10536,13 +11222,13 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="158" t="s">
+      <c r="A47" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="158" t="s">
+      <c r="B47" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="161"/>
+      <c r="C47" s="164"/>
       <c r="D47" s="84" t="s">
         <v>78</v>
       </c>
@@ -10561,9 +11247,9 @@
       <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="159"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="162"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="165"/>
       <c r="D48" s="84" t="s">
         <v>79</v>
       </c>
@@ -10578,9 +11264,9 @@
       <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="159"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="162"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="165"/>
       <c r="D49" s="84" t="s">
         <v>80</v>
       </c>
@@ -10595,9 +11281,9 @@
       <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="160"/>
-      <c r="B50" s="160"/>
-      <c r="C50" s="163"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="166"/>
       <c r="D50" s="84"/>
       <c r="E50" s="85"/>
       <c r="F50" s="85"/>
@@ -10621,13 +11307,13 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="167" t="s">
+      <c r="A52" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="170"/>
+      <c r="C52" s="173"/>
       <c r="D52" s="81" t="s">
         <v>85</v>
       </c>
@@ -10642,9 +11328,9 @@
       <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="168"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="171"/>
+      <c r="A53" s="171"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="174"/>
       <c r="D53" s="81" t="s">
         <v>86</v>
       </c>
@@ -10659,9 +11345,9 @@
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="168"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="171"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="174"/>
       <c r="D54" s="81" t="s">
         <v>87</v>
       </c>
@@ -10676,9 +11362,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="169"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="172"/>
+      <c r="A55" s="172"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="175"/>
       <c r="D55" s="81" t="s">
         <v>88</v>
       </c>
@@ -10706,13 +11392,13 @@
       <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="179" t="s">
+      <c r="A57" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="179" t="s">
+      <c r="B57" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="164"/>
+      <c r="C57" s="167"/>
       <c r="D57" s="64" t="s">
         <v>81</v>
       </c>
@@ -10727,9 +11413,9 @@
       <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="180"/>
-      <c r="B58" s="180"/>
-      <c r="C58" s="165"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="168"/>
       <c r="D58" s="64" t="s">
         <v>84</v>
       </c>
@@ -10744,9 +11430,9 @@
       <c r="K58" s="65"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
-      <c r="B59" s="180"/>
-      <c r="C59" s="165"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="168"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -10761,9 +11447,9 @@
       <c r="K59" s="65"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="181"/>
-      <c r="B60" s="181"/>
-      <c r="C60" s="166"/>
+      <c r="A60" s="184"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="64" t="s">
         <v>82</v>
       </c>
@@ -10791,13 +11477,13 @@
       <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="173" t="s">
+      <c r="A62" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="173" t="s">
+      <c r="B62" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="176"/>
+      <c r="C62" s="179"/>
       <c r="D62" s="88" t="s">
         <v>163</v>
       </c>
@@ -10812,9 +11498,9 @@
       <c r="K62" s="89"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="174"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="177"/>
+      <c r="A63" s="177"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="180"/>
       <c r="D63" s="88" t="s">
         <v>164</v>
       </c>
@@ -10829,9 +11515,9 @@
       <c r="K63" s="89"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="174"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="177"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="180"/>
       <c r="D64" s="91"/>
       <c r="E64" s="89"/>
       <c r="F64" s="89"/>
@@ -10844,9 +11530,9 @@
       <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="175"/>
-      <c r="B65" s="175"/>
-      <c r="C65" s="178"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="181"/>
       <c r="D65" s="91"/>
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
@@ -10937,13 +11623,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -10956,9 +11642,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="188"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="36" t="s">
         <v>96</v>
       </c>
@@ -10969,9 +11655,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="182" t="s">
+      <c r="A4" s="194"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="185" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -10988,9 +11674,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
-      <c r="B5" s="191"/>
-      <c r="C5" s="189"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="37" t="s">
         <v>160</v>
       </c>
@@ -11005,9 +11691,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="189"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="37" t="s">
         <v>159</v>
       </c>
@@ -11022,9 +11708,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="190"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="37" t="s">
         <v>100</v>
       </c>
@@ -11035,9 +11721,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="190"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="37" t="s">
         <v>101</v>
       </c>
@@ -11048,9 +11734,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="190"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="193"/>
       <c r="D9" s="37" t="s">
         <v>102</v>
       </c>
@@ -11061,9 +11747,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="190"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="193"/>
       <c r="D10" s="103" t="s">
         <v>178</v>
       </c>
@@ -11072,9 +11758,9 @@
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="188"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="37" t="s">
         <v>158</v>
       </c>
@@ -11085,8 +11771,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="38" t="s">
         <v>119</v>
       </c>
@@ -11100,8 +11786,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="38" t="s">
         <v>120</v>
       </c>
@@ -11115,8 +11801,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="187"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
@@ -11139,13 +11825,13 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="185" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -11158,9 +11844,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="36" t="s">
         <v>105</v>
       </c>
@@ -11171,9 +11857,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="183"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="36" t="s">
         <v>106</v>
       </c>
@@ -11184,9 +11870,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="184"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="36" t="s">
         <v>107</v>
       </c>
@@ -11206,13 +11892,13 @@
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="185"/>
       <c r="D21" s="36" t="s">
         <v>110</v>
       </c>
@@ -11223,9 +11909,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="183"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="36" t="s">
         <v>111</v>
       </c>
@@ -11236,9 +11922,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="183"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="36" t="s">
         <v>112</v>
       </c>
@@ -11249,9 +11935,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="183"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="186"/>
       <c r="D24" s="36" t="s">
         <v>113</v>
       </c>
@@ -11262,9 +11948,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="186"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="183"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="36" t="s">
         <v>114</v>
       </c>
@@ -11275,9 +11961,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="183"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
@@ -11288,9 +11974,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="183"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
@@ -11301,9 +11987,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="187"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="187"/>
       <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
@@ -11395,10 +12081,10 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="195" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11407,32 +12093,32 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
-      <c r="B3" s="193"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
-      <c r="B4" s="193"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
-      <c r="B5" s="193"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="197"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="200"/>
+      <c r="B6" s="197"/>
       <c r="C6" s="3" t="s">
         <v>149</v>
       </c>
@@ -11445,10 +12131,10 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="195" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -11457,32 +12143,32 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="193"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="193"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="193"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="197"/>
-      <c r="B12" s="194"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
@@ -11543,10 +12229,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="201" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -11555,32 +12241,32 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
-      <c r="B21" s="199"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="199"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="199"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="197"/>
-      <c r="B24" s="200"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
@@ -11609,10 +12295,10 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="195" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -11621,56 +12307,56 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="193"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="196"/>
       <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="193"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="196"/>
       <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="193"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="196"/>
       <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="193"/>
+      <c r="A32" s="199"/>
+      <c r="B32" s="196"/>
       <c r="C32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="193"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="196"/>
       <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="193"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="197"/>
-      <c r="B35" s="194"/>
+      <c r="A35" s="200"/>
+      <c r="B35" s="197"/>
       <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
@@ -11903,8 +12589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11912,7 +12598,7 @@
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.6640625" style="10" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -11926,15 +12612,15 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="390" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D2" s="111" t="s">
         <v>266</v>
@@ -11945,13 +12631,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
@@ -11959,22 +12645,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="111"/>
+        <v>349</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D5" s="111"/>
     </row>
@@ -11982,11 +12670,11 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="210" t="s">
-        <v>335</v>
+      <c r="B6" s="121" t="s">
+        <v>328</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D6" s="111"/>
     </row>
@@ -11994,15 +12682,15 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="210" t="s">
-        <v>329</v>
+      <c r="B7" s="121" t="s">
+        <v>324</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D7" s="111"/>
     </row>
-    <row r="8" spans="1:4" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -12010,76 +12698,82 @@
         <v>298</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="210" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="280.8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="D10" s="111"/>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="211" t="s">
-        <v>300</v>
+      <c r="B11" s="121" t="s">
+        <v>272</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" s="111"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="108" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="110"/>
+      <c r="B13" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>346</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="108" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="3"/>
@@ -12087,7 +12781,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="3"/>
@@ -12095,71 +12789,69 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="110"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>265</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C17" s="110"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="108" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="108" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C19" s="110" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="110"/>
+        <v>320</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>321</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="108" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C21" s="110"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>328</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C22" s="110"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C23" s="110"/>
       <c r="D23" s="3"/>
@@ -12167,15 +12859,15 @@
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="108" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C24" s="117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="212"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="108" t="s">
         <v>271</v>
       </c>
@@ -12183,23 +12875,25 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3" display="Salted Password Hashing"/>
-    <hyperlink ref="B20" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5" display="Message Authentication Codes(MACs)"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="C24" r:id="rId7" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
-    <hyperlink ref="C22" r:id="rId8" display="https://www.aeteurope.com/news/digital-signature-digital-certificate/"/>
-    <hyperlink ref="B3" r:id="rId9"/>
-    <hyperlink ref="D3" r:id="rId10"/>
-    <hyperlink ref="B5" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12" location="pkc"/>
-    <hyperlink ref="B6" r:id="rId13" location="skc"/>
-    <hyperlink ref="B8" r:id="rId14"/>
-    <hyperlink ref="D8" r:id="rId15" display="https://www.lifewire.com/cryptographic-hash-function-2625832"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3" display="Salted Password Hashing"/>
+    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://jwt.io/"/>
+    <hyperlink ref="C24" r:id="rId6" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
+    <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10" location="pkc"/>
+    <hyperlink ref="B6" r:id="rId11" location="skc"/>
+    <hyperlink ref="B8" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13" display="https://www.lifewire.com/cryptographic-hash-function-2625832"/>
+    <hyperlink ref="B9" r:id="rId14" display="Message Authentication Codes(MACs)"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16" display="https://www.aeteurope.com/news/digital-signature-digital-certificate/"/>
+    <hyperlink ref="D4" r:id="rId17" display="https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -12410,10 +13104,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="198" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="104" t="s">
@@ -12426,8 +13120,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="201"/>
-      <c r="B3" s="203"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="105" t="s">
         <v>204</v>
       </c>
@@ -12438,8 +13132,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="201"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="9" t="s">
         <v>205</v>
       </c>
@@ -12448,8 +13142,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="201"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="9" t="s">
         <v>214</v>
       </c>
@@ -12460,8 +13154,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="202"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="112" t="s">
         <v>220</v>
       </c>

--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="801" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Computer Science Fundamentals" sheetId="11" r:id="rId5"/>
     <sheet name="Design &amp; Architecture" sheetId="10" r:id="rId6"/>
     <sheet name="Security" sheetId="20" r:id="rId7"/>
-    <sheet name="Programming Languages" sheetId="12" r:id="rId8"/>
-    <sheet name="Scripting Languages" sheetId="13" r:id="rId9"/>
-    <sheet name="DevOps" sheetId="14" r:id="rId10"/>
-    <sheet name="IoT" sheetId="17" r:id="rId11"/>
-    <sheet name="Web Technologies" sheetId="16" r:id="rId12"/>
-    <sheet name="RFID System" sheetId="19" r:id="rId13"/>
-    <sheet name="Retail" sheetId="21" r:id="rId14"/>
+    <sheet name="REST API" sheetId="23" r:id="rId8"/>
+    <sheet name="Programming Languages" sheetId="12" r:id="rId9"/>
+    <sheet name="Scripting Languages" sheetId="13" r:id="rId10"/>
+    <sheet name="DevOps" sheetId="14" r:id="rId11"/>
+    <sheet name="IoT" sheetId="17" r:id="rId12"/>
+    <sheet name="Web Technologies" sheetId="16" r:id="rId13"/>
+    <sheet name="RFID System" sheetId="19" r:id="rId14"/>
+    <sheet name="Retail" sheetId="21" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Structures'!$J$3:$J$60</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="352">
   <si>
     <t>Sl.No</t>
   </si>
@@ -2639,15 +2640,6 @@
     </r>
   </si>
   <si>
-    <t>Access Control List (ACL)</t>
-  </si>
-  <si>
-    <t>Secure Webscoket</t>
-  </si>
-  <si>
-    <t>Secure REST (HTTPS)</t>
-  </si>
-  <si>
     <t>Gorilla Websocket</t>
   </si>
   <si>
@@ -2673,9 +2665,6 @@
   </si>
   <si>
     <t>SSH</t>
-  </si>
-  <si>
-    <t>Client Authentication - User Name, Pwd, JSON Web Token (JWT), Two-Factor Authentication</t>
   </si>
   <si>
     <t>RFID Reader/Scanner</t>
@@ -3058,9 +3047,6 @@
     <t>Mutable and Immutable</t>
   </si>
   <si>
-    <t>Base 64 Encoding/Decoding</t>
-  </si>
-  <si>
     <t>Cryptographic Hash Functions</t>
   </si>
   <si>
@@ -3077,9 +3063,6 @@
 https://en.wikipedia.org/wiki/Secure_Hash_Algorithms</t>
   </si>
   <si>
-    <t>Hashing Collision</t>
-  </si>
-  <si>
     <t>Hashing vs Encryption vs Encoding</t>
   </si>
   <si>
@@ -3090,92 +3073,6 @@
     <t>Message Authentication Codes (MACs)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* Server authenticates the client by using client provided credentials such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Name &amp; Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> JWT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-* Always use HTTPS connection (as credentials will be encrypted).
-* Generally Webscoket connection uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Name and Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> as credentials where as RESTful connection uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>JW token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cryptographic Encryption/decryption</t>
-  </si>
-  <si>
     <t>Cipher</t>
   </si>
   <si>
@@ -3207,27 +3104,6 @@
   </si>
   <si>
     <t>TLS/SSL</t>
-  </si>
-  <si>
-    <t>Certification Authorities (CA)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* A CA is a mutually trusted third party that confirms the identity of a certificate requestor (usually a user or computer), and then issues the requestor a digital certificate.
-* Verisign
-* The certificate binds the requestor’s identity to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public key</t>
-    </r>
   </si>
   <si>
     <t>Digital Certificate</t>
@@ -3238,9 +3114,6 @@
   </si>
   <si>
     <t>Asymmetric Key Cryptography</t>
-  </si>
-  <si>
-    <t>https://technet.microsoft.com/en-us/library/cc783349(v=ws.10).aspx</t>
   </si>
   <si>
     <t>HTTPS (HTTP over SLL or TLS)</t>
@@ -3683,362 +3556,6 @@
       </rPr>
       <t xml:space="preserve">. 
        Primarily used for message integrity like in digital signature.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Same key (referred as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>shared key or secret key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) is used for both encryption and decryption
-* Secret key cryptography schemes are generally categorized as being either </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>stream ciphers or block ciphers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-* Suitable for large data encryption/decryption since it's faster
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">List of Symmetric Key Cryptographic's Algorithms Implementations:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) Data Encryption Standard (DES):
-   b) Advanced Encryption Standard (AES):
-   c) International Data Encryption Algorithm (IDEA):
-   d) Rivest Ciphers (RC1, RC2, RC3, RC4, RC5, RC6): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">RC4 stream cipher uses variable-sized keys; it is widely used in commercial cryptography products. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   e) and many more.. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Public-Private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> key pair is used for the encryption and decryption
-* Public key can be used either for encryption or decryption and Private key can be used either for decryption or encryption respectively
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>PKC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> idea was first described (not implemented) publicly by Stanford University professor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Martin Hellman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and graduate student </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Whitfield Diffie
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>List of Asymmetric/Public Key Cryptographic's Algorithms Implementations:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) RSA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">The first, and still most common PKC implementation, named after three MIT mathematicians who developed it - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ronald Rivest, Adi Shamir, and Leonard Adleman
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       * RSA today is used in hundreds of software products and can be used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>key exchanges, digital signatures, or encryption of small blocks of data</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>http://doctrina.org/How-RSA-Works-With-Examples.html</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   b) Diffie-Hellman (D-H): D-H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>is used for secret-key key exchange only, and not for authentication or digital signatures.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   c) Digital Signature Algorithm (DSA): </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>DSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> provides digital signature capability for the authentication of messages.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -4914,6 +4431,3050 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How To Protect User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* At the server side, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can be secured by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashing the passwords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and storing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed passswords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> instead of the plain-text password in user credentials database.
+* Following cryptographic password hashing techniques are used to hash the passwords by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic hash functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>MD5, SHA-1, SHA-2, SHA-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and so on,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Passwords are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using any of the cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Salted Password Hashing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">is appended/prepended to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
+    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(acts like secret key) and it's unique to per user-per password
+    * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Salt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">will be stored along with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">in a user account's database
+    * HMAC-SHA256 algorithm used for generating hash of the password
+    * Don't reuse the Salt for other passwords and must be at least the size of the hash
+    * Relatively secure (not 100% secure) and can be cracked using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables or Rainbow Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> techniques however slow to crack.
+    * In CSSDK project we are using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hashlib </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">python library </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hashlib.pbkdf2_hmac(hash_name, password, salt, iterations, dklen=None) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://docs.python.org/3/library/hashlib.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>How Hashes are Cracked</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lookup Tables:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reverse Lookup Tables:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rainbow Tables:</t>
+    </r>
+  </si>
+  <si>
+    <t>Client/User Authentication</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">*  Types of client/user authentication methods
+     a) Basic Authentication </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- User Name, Password
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">b) API Key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Artifactory Server REST APIs uses Access token for authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+     c) OAuth Access Token: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Good for access control</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>GitHub REST APIs uses Access token for authentication
+          * Allows generating multiple access tokens with different access control
+          * Passed as authorization header Authorization: Bearer &lt;JWT Token&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+     d) JWT Token:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+         * Provides the mechanism for transmitting data between parties in a way that can be verified and trusted because it is digitally signed
+         * Good for controlling UI elements
+         * Passed as authorization header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Authorization: Bearer &lt;JWT Token&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* Always use HTTPS connection (as credentials/tokens will be encrypted).
+* Generally Webscoket connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Name and Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> as credentials where as RESTful connection uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>JWT/API Key/Access Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+* Access Tokens and JWTs can be set to expire with expiration time.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://zapier.com/engineering/apikey-oauth-jwt/
+https://www.jfrog.com/confluence/display/RTF/Artifactory+REST+API#ArtifactoryRESTAPI-Authentication</t>
+  </si>
+  <si>
+    <t>Reference Links</t>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs
+https://www.sslsupportdesk.com/details-digital-certificate-mean/
+https://www.akadia.com/services/ssh_test_certificate.html
+https://www.sslshopper.com/article-how-to-create-a-self-signed-certificate.html
+https://docs.oracle.com/cd/E19509-01/820-3503/ggbgc/index.html
+https://en.wikipedia.org/wiki/Public_key_certificate
+https://www.digicert.com/blog/where-is-your-private-key/
+https://blogs.msdn.microsoft.com/kaushal/2013/01/09/self-signed-root-ca-and-intermediate-ca-certificates/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Same key (referred as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>shared key or secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) is used for both encryption and decryption
+* Secret key cryptography schemes are generally categorized as being either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>stream ciphers or block ciphers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Suitable for large data encryption/decryption since it's faster
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">List of Symmetric Key Cryptographic's Algorithms Implementations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) Data Encryption Standard - DES:
+   b) Advanced Encryption Standard - AES:
+   c) International Data Encryption Algorithm - IDEA:
+   d) Rivest Ciphers (RC1, RC2, RC3, RC4, RC5, RC6): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RC4 stream cipher uses variable-sized keys; it is widely used in commercial cryptography products. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   e) and many more.. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>https://technet.microsoft.com/en-us/library/cc783349(v=ws.10).aspx
+http://www.moserware.com/2009/06/first-few-milliseconds-of-https.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* HTTPS means, the communication between the client and server is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secure.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> offers three things:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Secrecy
+  b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  c) Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All the above three things can be achieved by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>cryptographic commuincation protocols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>TLS/SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Authenticity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocols provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>verifying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server provided </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate (SSL certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>at the client side</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Secrecy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:  TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">protocol encrypts the data (hence data is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) sent over the network using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">asymmetric key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for key exchange) and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> symmetric key algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(for bulk data).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: TLS/SSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cryptographic hash functions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>to generate the MAC of the encrypted data, so in this way both client/server can trust that data is coming from the intended parties</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Man in the middle attack</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>can't</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>modify/alter the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">data as data is encrypted.
+* HTTPS does not mean your data is secure in server, it just means your connection is secure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre-requisites For Running Secure Server</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate (a.k.a SSL Certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created &amp; signed by the CAs upon CSR
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Private Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Private Key) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>- Created by the server's owner during CSR time and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">stored securely by the server owner 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Public Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>RSA Public Key)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - Derived fom the server's private key by the CA and embedded inside the server cerificate - server doesn't use public key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Server's private-public keys are used for the encryption-decryption during the TLS/SSL handshake time to generate &amp; exchange the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">secret key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(for data encryption-decryption)
+* By default, HTTPS server runs on port 443
+* Cipher Suites
+* Public Key Infrastructure (PKI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Public-Private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> key pair is used for the encryption and decryption
+* Public key can be used either for encryption or decryption and Private key can be used either for decryption or encryption respectively
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>PKC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> idea was first described (not implemented) publicly by Stanford University professor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Martin Hellman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and graduate student </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Whitfield Diffie
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>List of Asymmetric/Public Key Cryptographic's Algorithms Implementations:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) RSA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The first, and still most common PKC implementation, named after three MIT mathematicians who developed it - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ronald Rivest, Adi Shamir, and Leonard Adleman
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       * RSA today is used in hundreds of software products and can be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>key exchanges, digital signatures, or encryption of small blocks of data</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://doctrina.org/How-RSA-Works-With-Examples.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   b) Diffie-Hellman - D-H: D-H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>is used for secret-key key exchange only, and not for authentication or digital signatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   c) Digital Signature Algorithm -DSA: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>DSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> provides digital signature capability for the authentication of messages.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">What is Digital Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is an electronic "password" that allows a person, organizaion to exchange data securely over the Internet using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public key infrastructure (PKI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Types of Digital Certificates:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) Server Certificate (SSL Certificate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned and installed on the server side and provides the server authentication to the clients 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>b) Client Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Owned by the client and provides the client authentication to the server (typically)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>c) Code Signing Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Ownebd by the software developer or the organization. Used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>signing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the software binary files like .exe, .dll, .jar, .apk etc and ensures software came from software  
+        publisher and protects software from alteration after publication. For instance, Download Chrome Installer File (.exe) -&gt;Properties -&gt; Digital Signatures Tab -&gt;Click on Digital Signature -&gt; View 
+       Certificate 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Types of Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   a) CA-Signed Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(a.k.a. Root SSL Certifcates) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Created and signed by the trusted CAs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   b) Self-Signed Server Certificates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Created by the developers for testing purpose 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps To Generate the CA-Signed Server Certificate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server's Owner Role:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (RSA private key)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Create the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Certificate Signing Request (CSR) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>(typically a .pem file) by providing all the required information for the certifcate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Apply for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to any of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trusted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Certificate Authorities (CAs)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>CA's Role:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  * Verifies the information provided in the CSR file.
+  * If everything looks good then CA creates and signs the certificate using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>its (CAs) private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (not server's private key); this part is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Certificate's Signature.
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Each and every digital certificates are signed by the trusted CAs using their private keys
+  * Generates/derives the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">server's public key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>server's private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and embeds the server's public key in to the certificate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>* Server's gets the CA-Signed Server Certificate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Details about the content of digital certificate - https://www.sslsupportdesk.com/details-digital-certificate-mean/
+* Server certificate and server's private key will be used during the secure communication by the TLS/SSL library at the server side.
+* X509 is certifacte standard
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Uses of Server Cerificate, Server's Public - Private Keys and Secret Key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* Server Certificate - During the TLS/SSL handshake process time, client verifies the server's authenticity by using the server provided certificate.
+* Server's Public Key - During the TLS/SSL handshake process time client, 
+      * Generates the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">symmetric key/secret key.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Encrypts the newly generated secret key using the server's public key (obtained from the certifcate) and sends it to the server.
+* Server's Priavte Key -  During the TLS/SSL handshake process time, server receives the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>encrypted secret key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from the client and decrypts using its private key and gets the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">secret key.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Secret Key - Used by the server and client for the data encryption-decryption.
+* All these above steps handled by the TLS/SSL library at both server and client side.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">How Client/Browser Verifies the Server's Authenticity/Certificate?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* During the SSL/TLS handshake process time, server provides its certificate to the client (web browser) 
+* Client checks/verifies the digital certificate details like,
+   * Certificate is signed or not - If certificate is not signed then it's considered as invalid and connection will be dropped.
+   * Cerficate issuer &amp; signature - Certificate must be issued &amp; signed by the list of trusted/root CAs.
+        * Each and every browser pre-installed with the list of trusted CAs along with their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public keys</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>so certifcate issuer must be one among from the list.
+        * But how to be sure that certificate is issued by the trusted/root CA?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ans:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">By verifying the certificate's signature as follows,
+            * Each and every browsers are pre-installed with the list of trusted CAs along with their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>public keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and using this public key decrypt the signature -&gt; signature hash
+            * Now compute the hash of the signature from the certificate (how?) and compare this hash value with the above hash value            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>Self Signed Digital Certificate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+* Self signed digital certificates are not created/signed by the CAs instead it's created/signed by the developers using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>certificate's private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Self signed digital certifcates are used for testing purpose or if server is not running on the public IP domain (it's public) .
+* Refer this link to how to generate the self signed certificate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* Base 64 Encoding converts binary data (like image data) in to text data
+* </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">* JWT is generated by the server upon client's request.
 * Server maintains the list of generated JW tokens to verify the requested JWT
 * For the first time, client requests JWT by providing user name and password (only one time) to the server and for the subsequent REST API calls uses JWT
@@ -5002,7 +7563,8 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> is attached along with the actual JWT content i.e. JWT Header. JWT Payload. JWT Signature 
-     * A signature allows a JWT to be validated against the modifications i.e. header &amp; payload is not tampered or altered
+     * A signature allows a JWT to be validated against the modifications i.e. header &amp; payload is not tampered or altered by man-in-middle-attack.
+     * But why would someone alter the JWT?  For example, based on JWT payload info certain UI elements will be enabled/disabled at the client side 
 * </t>
     </r>
     <r>
@@ -5082,7 +7644,7 @@
         * The signature can't be stripped.
         * The signature is private (can't be seen by others).
 * Signature based JWT is widely / commonly used JWT type 
-* Signature based JWT consists of three parts (typically, base64 encoded), namely,
+* Signature based JWT consists of three parts (typically, base64 url encoded), namely,
    a) Header - Consist of at least two paremeters (a) type : JWT (b) JWT signing algorithm : HS256 or RS256 or ES256 (commonly used but not limited to this)
    b) Playload - Contains actual information
    c) Signature = hash(Header + "." + Payload + Key) where as  Key is secret key (in case of HS256) or private /public key (in case of RS256 or ECDSA)
@@ -5136,2429 +7698,30 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How To Protect User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* At the server side, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can be secured by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashing the passwords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and storing the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashed passswords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> instead of the plain-text password in user credentials database.
-* Following cryptographic password hashing techniques are used to hash the passwords by using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>cryptographic hash functions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>MD5, SHA-1, SHA-2, SHA-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and so on,
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Simple Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Passwords are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>hashed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> using any of the cryptographic hashing functions. e.g. hash("my_password")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-     * Not very secure, hash code can easily be cracked using any of the hash cracking tools (listed below)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Salted Password Hashing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">is appended/prepended to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">before hashing. e.g. hash("my_password" + "QxLUF1bgIAdeQX")  = 2cf24dba5fb0a30e26e83b2ac5b9e29e1b161e5c1fa7425e73043362938b9824
-    * Here "QxLUF1bgIAdeQX" is a dynamically generated </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(acts like secret key) and it's unique to per user-per password
-    * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Salt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">will be stored along with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">in a user account's database
-    * HMAC-SHA256 algorithm used for generating hash of the password
-    * Don't reuse the Salt for other passwords and must be at least the size of the hash
-    * Relatively secure (not 100% secure) and can be cracked using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables or Rainbow Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> techniques however slow to crack.
-    * In CSSDK project we are using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hashlib </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">python library </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">hashlib.pbkdf2_hmac(hash_name, password, salt, iterations, dklen=None) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://docs.python.org/3/library/hashlib.html
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>How Hashes are Cracked</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dictionary Attacks &amp; Brute Force Attacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The simplest way to crack a hash is to try to guess the password, hashing each guess, and checking if the guess's hash equals the hash being cracked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lookup Tables:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reverse Lookup Tables:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rainbow Tables:</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs
-https://www.sslsupportdesk.com/details-digital-certificate-mean/
-https://www.akadia.com/services/ssh_test_certificate.html
-https://www.sslshopper.com/article-how-to-create-a-self-signed-certificate.html
-https://docs.oracle.com/cd/E19509-01/820-3503/ggbgc/index.html
-https://en.wikipedia.org/wiki/Public_key_certificate
-https://www.digicert.com/blog/where-is-your-private-key/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* HTTPS means, the communication between the client and server is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secure.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>HTTPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> offers three things:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Secrecy
-  b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  c) Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-All the above three things can be achieved by using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>cryptographic commuincation protocols</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>TLS/SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Authenticity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocols provides the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server authentication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>verifying</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">server provided </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Certificate (SSL certificate)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>at the client side</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Secrecy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:  TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">protocol encrypts the data (hence data is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>secret</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) sent over the network using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">asymmetric key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(for key exchange) and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> symmetric key algorithm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(for bulk data).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Integrity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: TLS/SSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">uses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">cryptographic hash functions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>to generate the MAC of the encrypted data, so in this way both client/server can trust that data is coming from the intended parties</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Man in the middle attack</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>can't</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>modify/alter the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">data as data is encrypted.
-* HTTPS does not mean your data is secure in server, it just means your connection is secure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre-requisites For Running Secure Server</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Certificate (a.k.a SSL Certificate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Created &amp; signed by the CAs upon CSR
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Private Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Private Key) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Created by the server's owner during CSR time and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">stored securely by the server owner 
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>c)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Public Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>RSA Public Key)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  - Derived fom the server's private key by the CA and embedded inside the server cerificate - server doesn't use public key</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Server's private-public keys are used for the encryption-decryption during the TLS/SSL handshake time to generate &amp; exchange the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">secret key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(for data encryption-decryption)
-* HTTPS server runs on port 443 (always?)
-* Cipher Suites
-* Public Key Infrastructure (PKI)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">What is Digital Certificate?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Digital Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is an electronic "password" that allows a person, organizaion to exchange data securely over the Internet using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public key infrastructure (PKI)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Types of Digital Certificates:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) Server Certificate (SSL Certificate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Owned and installed on the server side and provides the server authentication to the clients 
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>b) Client Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Owned by the client and provides the client authentication to the server (typically)
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>c) Code Signing Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Ownebd by the software developer or the organization. Used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>signing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the software binary files like .exe, .dll, .jar, .apk etc and ensures software came from software  
-        publisher and protects software from alteration after publication. For instance, Download Chrome Installer File (.exe) -&gt;Properties -&gt; Digital Signatures Tab -&gt;Click on Digital Signature -&gt; View 
-       Certificate 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Types of Server Certificates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   a) CA-Signed Server Certificates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Created and signed by the CAs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   b) Self-Signed Server Certificates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Created by the developers for testing purpose 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps To Generate the Signed Server Certificate:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server's Owner Role:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server private key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (RSA private key)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Create the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Certificate Signing Request (CSR) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>(typically a .pem file) by providing all the required information for the certifcate</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Apply for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Certificate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> to any of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trusted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Certificate Authorities (CAs)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>CA's Role:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  * Verifies the information provided in the CSR file.
-  * If everything looks good then CA creates and signs the certificate using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>its (CAs) private key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (not server's private key); this part is called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Certificate's Signature.
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Each and every digital certificates are signed by the trusted CAs using their private keys
-  * Generates/derives the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">server's public key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>server's private key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and embeds the server's public key in to the certificate.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>* Server's gets the CA-Signed Server Certificate.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Details about the content of digital certificate - https://www.sslsupportdesk.com/details-digital-certificate-mean/
-* Server certificate and server's private key will be used during the secure communication by the TLS/SSL library at the server side.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Uses of Server Cerificate, Server's Public - Private Keys and Secret Key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* Server Certificate - During the TLS/SSL handshake process time, client verifies the server's authenticity by using the server provided certificate.
-* Server's Public Key - During the TLS/SSL handshake process time client, 
-      * Generates the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">symmetric key/secret key.
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Encrypts the newly generated secret key using the server's public key (obtained from the certifcate) and sends it to the server.
-* Server's Priavte Key -  During the TLS/SSL handshake process time, server receives the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>encrypted secret key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> from the client and decrypts using its private key and gets the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">secret key.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* Secret Key - Used by the server and client for the data encryption-decryption.
-* All these above steps handled by the TLS/SSL library at both server and client side.
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">How Client/Browser Verifies the Server's Authenticity/Certificate?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* During the SSL/TLS handshake process time, server provides its certificate to the client (web browser) 
-* Client checks/verifies the digital certificate details like,
-   * Certificate is signed or not - If certificate is not signed then it's considered as invalid and connection will be dropped.
-   * Cerficate issuer &amp; signature - Certificate must be issued &amp; signed by the list of trusted CAs.
-        * Each and every browser pre-installed with the list of trusted CAs along with their </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>public keys</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>so</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>certifcate issuer must be one among from the list.
-        *  But how to be sure that certificate is issued by trusted CA?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ans:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">By verifying the certificate signature as follows,
-        * 
-* How client verifys the certificate's signature? client extracts the RSA public key from the certificate (which is embedded inside the certificate) and generates the hash of the signature using extracted public 
-   key and compares against digital certificate signature hash value (embedded inside the certificate).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Self Signed Digital Certificate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-* Self signed digital certificates are not created/signed by the CAs instead it's by the developers.
-* Self signed digital certifcates are generated and used for testing purpose or if server is not running on the public IP domain (it's public) .
-* Refer this link to how to generate the self signed certificate: https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs.
-</t>
-    </r>
+    <t>Base 64 Encoding &amp; Base64 Url Encoding</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Base64
+https://brockallen.com/2014/10/17/base64url-encoding/</t>
+  </si>
+  <si>
+    <t>https://searchmicroservices.techtarget.com/definition/RESTful-API
+https://www.jfrog.com/confluence/display/RTF/Artifactory+REST+API
+https://developer.github.com/v3/
+https://confluence.jetbrains.com/display/TCD10/REST+API
+https://stackoverflow.com/questions/630453/put-vs-post-in-rest</t>
+  </si>
+  <si>
+    <t>RESTful API</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>cURL, Python Libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -7883,7 +8046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8241,7 +8404,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8351,78 +8585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9071,6 +9233,162 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="203"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="203"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="203"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="204"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9101,10 +9419,10 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="194" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -9115,8 +9433,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="199"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="195"/>
       <c r="C3" s="11" t="s">
         <v>226</v>
       </c>
@@ -9125,8 +9443,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="200"/>
-      <c r="B4" s="197"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="11" t="s">
         <v>227</v>
       </c>
@@ -9135,50 +9453,50 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="195" t="s">
-        <v>329</v>
+      <c r="B5" s="194" t="s">
+        <v>318</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="199"/>
-      <c r="B6" s="196"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="200"/>
-      <c r="B7" s="197"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="194" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -9189,8 +9507,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="196"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="11" t="s">
         <v>230</v>
       </c>
@@ -9199,8 +9517,8 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="196"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="11" t="s">
         <v>228</v>
       </c>
@@ -9209,8 +9527,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="199"/>
-      <c r="B11" s="196"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="195"/>
       <c r="C11" s="11" t="s">
         <v>229</v>
       </c>
@@ -9219,8 +9537,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
-      <c r="B12" s="197"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="11" t="s">
         <v>233</v>
       </c>
@@ -9237,10 +9555,10 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="200" t="s">
         <v>239</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -9251,8 +9569,8 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="199"/>
-      <c r="B15" s="196"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="11" t="s">
         <v>234</v>
       </c>
@@ -9261,8 +9579,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="200"/>
-      <c r="B16" s="197"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="11" t="s">
         <v>235</v>
       </c>
@@ -9279,10 +9597,10 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="194" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -9293,8 +9611,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
-      <c r="B19" s="197"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="196"/>
       <c r="C19" s="11" t="s">
         <v>236</v>
       </c>
@@ -9369,7 +9687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -9406,18 +9724,18 @@
     </row>
     <row r="2" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="115"/>
       <c r="F2" s="116" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
@@ -9428,46 +9746,46 @@
         <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="116" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="195" t="s">
-        <v>280</v>
+      <c r="B4" s="194" t="s">
+        <v>276</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="116" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="208"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="117" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9479,33 +9797,33 @@
       <c r="F6" s="116"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="195" t="s">
-        <v>287</v>
+      <c r="B7" s="194" t="s">
+        <v>283</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="116"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="208"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E8" s="115"/>
       <c r="F8" s="116" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9569,7 +9887,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="115"/>
@@ -9581,13 +9899,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="119" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9668,7 +9986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -9719,7 +10037,7 @@
         <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
@@ -9864,7 +10182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -9904,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -9914,10 +10232,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="209" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9930,8 +10248,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="199"/>
-      <c r="B4" s="199"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="11" t="s">
         <v>244</v>
       </c>
@@ -9942,8 +10260,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="200"/>
-      <c r="B5" s="200"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="11" t="s">
         <v>245</v>
       </c>
@@ -9954,10 +10272,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="210" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -9970,8 +10288,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="296.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="200"/>
-      <c r="B7" s="212"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="11" t="s">
         <v>252</v>
       </c>
@@ -10010,7 +10328,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -10022,7 +10340,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -10085,11 +10403,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10117,11 +10435,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="113" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10266,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
@@ -10278,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="8"/>
@@ -10290,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="8"/>
@@ -10302,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="8"/>
@@ -10314,7 +10632,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="1"/>
@@ -10326,7 +10644,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="1"/>
@@ -10338,7 +10656,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="1"/>
@@ -10350,7 +10668,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
@@ -10362,7 +10680,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="1"/>
@@ -10475,13 +10793,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="153" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -10502,9 +10820,9 @@
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="131"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="50" t="s">
         <v>38</v>
       </c>
@@ -10521,9 +10839,9 @@
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="131"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -10538,9 +10856,9 @@
       <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="131"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -10555,9 +10873,9 @@
       <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -10572,9 +10890,9 @@
       <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
@@ -10602,13 +10920,13 @@
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="133"/>
+      <c r="C11" s="156"/>
       <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
@@ -10623,9 +10941,9 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="146"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="134"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="157"/>
       <c r="D12" s="60" t="s">
         <v>41</v>
       </c>
@@ -10640,9 +10958,9 @@
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="134"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
@@ -10657,9 +10975,9 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="134"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
@@ -10674,9 +10992,9 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="135"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
@@ -10704,13 +11022,13 @@
       <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="136"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="71" t="s">
         <v>51</v>
       </c>
@@ -10725,9 +11043,9 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="137"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="71" t="s">
         <v>52</v>
       </c>
@@ -10742,9 +11060,9 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="137"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="71" t="s">
         <v>53</v>
       </c>
@@ -10759,9 +11077,9 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="137"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
@@ -10776,9 +11094,9 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="137"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="71" t="s">
         <v>58</v>
       </c>
@@ -10793,9 +11111,9 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="137"/>
+      <c r="A22" s="175"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
@@ -10810,9 +11128,9 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="137"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="71" t="s">
         <v>54</v>
       </c>
@@ -10827,9 +11145,9 @@
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="176"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="71" t="s">
         <v>57</v>
       </c>
@@ -10857,13 +11175,13 @@
       <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
+      <c r="C26" s="162"/>
       <c r="D26" s="54" t="s">
         <v>38</v>
       </c>
@@ -10878,9 +11196,9 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="143"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="163"/>
       <c r="D27" s="54" t="s">
         <v>59</v>
       </c>
@@ -10895,9 +11213,9 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="140"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="54" t="s">
         <v>60</v>
       </c>
@@ -10920,9 +11238,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="140"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
@@ -10937,9 +11255,9 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="143"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="140"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="54" t="s">
         <v>62</v>
       </c>
@@ -10954,9 +11272,9 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="163"/>
       <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
@@ -10971,9 +11289,9 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="140"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="163"/>
       <c r="D32" s="54" t="s">
         <v>64</v>
       </c>
@@ -10988,9 +11306,9 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="140"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="163"/>
       <c r="D33" s="54" t="s">
         <v>65</v>
       </c>
@@ -11005,9 +11323,9 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="141"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
@@ -11069,13 +11387,13 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="124"/>
+      <c r="C38" s="147"/>
       <c r="D38" s="78" t="s">
         <v>69</v>
       </c>
@@ -11090,9 +11408,9 @@
       <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="125"/>
+      <c r="A39" s="151"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="78" t="s">
         <v>70</v>
       </c>
@@ -11107,9 +11425,9 @@
       <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="125"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="148"/>
       <c r="D40" s="78" t="s">
         <v>71</v>
       </c>
@@ -11124,9 +11442,9 @@
       <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="125"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="148"/>
       <c r="D41" s="78" t="s">
         <v>72</v>
       </c>
@@ -11141,9 +11459,9 @@
       <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="125"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="148"/>
       <c r="D42" s="78" t="s">
         <v>74</v>
       </c>
@@ -11158,9 +11476,9 @@
       <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="125"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="148"/>
       <c r="D43" s="78" t="s">
         <v>75</v>
       </c>
@@ -11175,9 +11493,9 @@
       <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="128"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="125"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="148"/>
       <c r="D44" s="78" t="s">
         <v>76</v>
       </c>
@@ -11192,9 +11510,9 @@
       <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="129"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="126"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="78" t="s">
         <v>77</v>
       </c>
@@ -11222,13 +11540,13 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="164"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="84" t="s">
         <v>78</v>
       </c>
@@ -11247,9 +11565,9 @@
       <c r="K47" s="85"/>
     </row>
     <row r="48" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="162"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="165"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="84" t="s">
         <v>79</v>
       </c>
@@ -11264,9 +11582,9 @@
       <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="162"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="165"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="84" t="s">
         <v>80</v>
       </c>
@@ -11281,9 +11599,9 @@
       <c r="K49" s="85"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="163"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="166"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="137"/>
       <c r="D50" s="84"/>
       <c r="E50" s="85"/>
       <c r="F50" s="85"/>
@@ -11307,13 +11625,13 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="170" t="s">
+      <c r="B52" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="173"/>
+      <c r="C52" s="144"/>
       <c r="D52" s="81" t="s">
         <v>85</v>
       </c>
@@ -11328,9 +11646,9 @@
       <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="171"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="174"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="145"/>
       <c r="D53" s="81" t="s">
         <v>86</v>
       </c>
@@ -11345,9 +11663,9 @@
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="171"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="174"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="145"/>
       <c r="D54" s="81" t="s">
         <v>87</v>
       </c>
@@ -11362,9 +11680,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="172"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="175"/>
+      <c r="A55" s="143"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="146"/>
       <c r="D55" s="81" t="s">
         <v>88</v>
       </c>
@@ -11392,13 +11710,13 @@
       <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="182" t="s">
+      <c r="A57" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="182" t="s">
+      <c r="B57" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="167"/>
+      <c r="C57" s="138"/>
       <c r="D57" s="64" t="s">
         <v>81</v>
       </c>
@@ -11413,9 +11731,9 @@
       <c r="K57" s="65"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="183"/>
-      <c r="B58" s="183"/>
-      <c r="C58" s="168"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="139"/>
       <c r="D58" s="64" t="s">
         <v>84</v>
       </c>
@@ -11430,9 +11748,9 @@
       <c r="K58" s="65"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="183"/>
-      <c r="B59" s="183"/>
-      <c r="C59" s="168"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="139"/>
       <c r="D59" s="64" t="s">
         <v>83</v>
       </c>
@@ -11447,9 +11765,9 @@
       <c r="K59" s="65"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="184"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="169"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="140"/>
       <c r="D60" s="64" t="s">
         <v>82</v>
       </c>
@@ -11477,13 +11795,13 @@
       <c r="K61" s="48"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="176" t="s">
+      <c r="A62" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="176" t="s">
+      <c r="B62" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="179"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="88" t="s">
         <v>163</v>
       </c>
@@ -11498,9 +11816,9 @@
       <c r="K62" s="89"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="177"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="180"/>
+      <c r="A63" s="124"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="88" t="s">
         <v>164</v>
       </c>
@@ -11515,9 +11833,9 @@
       <c r="K63" s="89"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="177"/>
-      <c r="B64" s="177"/>
-      <c r="C64" s="180"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="127"/>
       <c r="D64" s="91"/>
       <c r="E64" s="89"/>
       <c r="F64" s="89"/>
@@ -11530,9 +11848,9 @@
       <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="181"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="128"/>
       <c r="D65" s="91"/>
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
@@ -11547,18 +11865,6 @@
   </sheetData>
   <autoFilter ref="J3:J60"/>
   <mergeCells count="27">
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="A38:A45"/>
@@ -11574,6 +11880,18 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" r:id="rId1" display="http://interactivepython.org/runestone/static/pythonds/Trees/PriorityQueueswithBinaryHeaps.html"/>
@@ -11623,13 +11941,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="184" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -11642,9 +11960,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="191"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="36" t="s">
         <v>96</v>
       </c>
@@ -11655,9 +11973,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="194"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="185" t="s">
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="184" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -11674,9 +11992,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="194"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="192"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="37" t="s">
         <v>160</v>
       </c>
@@ -11691,9 +12009,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="194"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="192"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="37" t="s">
         <v>159</v>
       </c>
@@ -11708,9 +12026,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="194"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="193"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="37" t="s">
         <v>100</v>
       </c>
@@ -11721,9 +12039,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="193"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="37" t="s">
         <v>101</v>
       </c>
@@ -11734,9 +12052,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="193"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="192"/>
       <c r="D9" s="37" t="s">
         <v>102</v>
       </c>
@@ -11747,9 +12065,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="193"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="192"/>
       <c r="D10" s="103" t="s">
         <v>178</v>
       </c>
@@ -11758,9 +12076,9 @@
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="194"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="191"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="37" t="s">
         <v>158</v>
       </c>
@@ -11771,8 +12089,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189"/>
-      <c r="B12" s="189"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="38" t="s">
         <v>119</v>
       </c>
@@ -11786,8 +12104,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="38" t="s">
         <v>120</v>
       </c>
@@ -11801,8 +12119,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="190"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
@@ -11825,13 +12143,13 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="184" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -11844,9 +12162,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="189"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="186"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="185"/>
       <c r="D17" s="36" t="s">
         <v>105</v>
       </c>
@@ -11857,9 +12175,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="189"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="186"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="185"/>
       <c r="D18" s="36" t="s">
         <v>106</v>
       </c>
@@ -11870,9 +12188,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="187"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="36" t="s">
         <v>107</v>
       </c>
@@ -11892,13 +12210,13 @@
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="185"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="36" t="s">
         <v>110</v>
       </c>
@@ -11909,9 +12227,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="189"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="186"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="36" t="s">
         <v>111</v>
       </c>
@@ -11922,9 +12240,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="186"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="185"/>
       <c r="D23" s="36" t="s">
         <v>112</v>
       </c>
@@ -11935,9 +12253,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="189"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="186"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="185"/>
       <c r="D24" s="36" t="s">
         <v>113</v>
       </c>
@@ -11948,9 +12266,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="189"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="186"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="185"/>
       <c r="D25" s="36" t="s">
         <v>114</v>
       </c>
@@ -11961,9 +12279,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="189"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="186"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="185"/>
       <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
@@ -11974,9 +12292,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="189"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="186"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
@@ -11987,9 +12305,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="190"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="187"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
@@ -12081,10 +12399,10 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="194" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -12093,32 +12411,32 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="199"/>
-      <c r="B3" s="196"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="195"/>
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="199"/>
-      <c r="B4" s="196"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="199"/>
-      <c r="B5" s="196"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="200"/>
-      <c r="B6" s="197"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="196"/>
       <c r="C6" s="3" t="s">
         <v>149</v>
       </c>
@@ -12131,10 +12449,10 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="194" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -12143,32 +12461,32 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="196"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="196"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="199"/>
-      <c r="B11" s="196"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="195"/>
       <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
-      <c r="B12" s="197"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
@@ -12229,10 +12547,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="200" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -12241,32 +12559,32 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="199"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="201"/>
       <c r="C22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="199"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="201"/>
       <c r="C23" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="199"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="3" t="s">
         <v>153</v>
       </c>
@@ -12295,10 +12613,10 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="198" t="s">
+      <c r="A28" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="194" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -12307,56 +12625,56 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="199"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="199"/>
-      <c r="B30" s="196"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="195"/>
       <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
-      <c r="B31" s="196"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="195"/>
       <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="199"/>
-      <c r="B32" s="196"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="195"/>
       <c r="C32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="199"/>
-      <c r="B33" s="196"/>
+      <c r="A33" s="198"/>
+      <c r="B33" s="195"/>
       <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="199"/>
-      <c r="B34" s="196"/>
+      <c r="A34" s="198"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="200"/>
-      <c r="B35" s="197"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="196"/>
       <c r="C35" s="3" t="s">
         <v>143</v>
       </c>
@@ -12365,7 +12683,7 @@
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -12587,10 +12905,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12609,21 +12927,25 @@
       <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="390" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
+      <c r="C1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -12631,13 +12953,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="111" t="s">
         <v>325</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
@@ -12645,13 +12967,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
@@ -12659,10 +12981,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D5" s="111"/>
     </row>
@@ -12671,7 +12993,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C6" s="110" t="s">
         <v>338</v>
@@ -12683,10 +13005,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D7" s="111"/>
     </row>
@@ -12695,13 +13017,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="171.6" x14ac:dyDescent="0.3">
@@ -12709,13 +13031,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -12723,37 +13045,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D10" s="111"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -12761,115 +13085,79 @@
         <v>11</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="110"/>
+        <v>261</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>262</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="110"/>
+        <v>301</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>327</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="108" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="C16" s="110"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="B17" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+        <v>345</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="B18" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>265</v>
+        <v>298</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>299</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="B19" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="108" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="108" t="s">
-        <v>304</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="B25" s="108" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -12877,11 +13165,11 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="B12" r:id="rId2"/>
     <hyperlink ref="B13" r:id="rId3" display="Salted Password Hashing"/>
-    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId4"/>
     <hyperlink ref="D12" r:id="rId5" display="https://jwt.io/"/>
-    <hyperlink ref="C24" r:id="rId6" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
+    <hyperlink ref="C18" r:id="rId6" display="https://stackoverflow.com/questions/326699/difference-between-hashing-a-password-and-encrypting-it"/>
     <hyperlink ref="B3" r:id="rId7"/>
-    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId8" display="https://technet.microsoft.com/en-us/library/cc783349(v=ws.10).aspx"/>
     <hyperlink ref="B5" r:id="rId9"/>
     <hyperlink ref="B7" r:id="rId10" location="pkc"/>
     <hyperlink ref="B6" r:id="rId11" location="skc"/>
@@ -12891,13 +13179,169 @@
     <hyperlink ref="D9" r:id="rId15"/>
     <hyperlink ref="C10" r:id="rId16" display="https://www.aeteurope.com/news/digital-signature-digital-certificate/"/>
     <hyperlink ref="D4" r:id="rId17" display="https://www.digitalocean.com/community/tutorials/openssl-essentials-working-with-ssl-certificates-private-keys-and-csrs"/>
+    <hyperlink ref="D11" r:id="rId18" display="https://zapier.com/engineering/apikey-oauth-jwt/"/>
+    <hyperlink ref="D17" r:id="rId19" display="https://en.wikipedia.org/wiki/Base64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="92.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.jfrog.com/confluence/display/RTF/Artifactory+REST+API"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -13071,160 +13515,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="53.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="198" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="105" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="205"/>
-      <c r="B6" s="207"/>
-      <c r="C6" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/Preparation_Guide.xlsx
+++ b/docs/Preparation_Guide.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="366">
   <si>
     <t>Sl.No</t>
   </si>
@@ -7705,23 +7705,251 @@
 https://brockallen.com/2014/10/17/base64url-encoding/</t>
   </si>
   <si>
+    <t>RESTful API</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Python Libraries</t>
+  </si>
+  <si>
+    <t>http://docs.python-requests.org/en/latest/
+http://docs.python-requests.org/en/latest/user/quickstart/
+https://stackoverflow.com/questions/17301938/making-a-request-to-a-restful-api-using-python</t>
+  </si>
+  <si>
+    <t>HTTP Methods</t>
+  </si>
+  <si>
+    <t>HTTP Headers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Deploys the data; creates new antry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Gets the data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>PUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Deploys the data; updates existing entry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Deletes the data</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTP Response</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status Code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>- 403,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Response Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Plain Text, JSON Data, Binary Data, Raw Data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Wrapper over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>urllib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>PyCurl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Wrapper over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>libcurl</t>
+    </r>
+  </si>
+  <si>
+    <t>cURL
+Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Header </t>
+  </si>
+  <si>
+    <t>Representational State</t>
+  </si>
+  <si>
+    <t>Developing REST API</t>
+  </si>
+  <si>
+    <t>https://auth0.com/blog/developing-restful-apis-with-python-and-flask/</t>
+  </si>
+  <si>
+    <t>{'key1': 'value1', 'key2': ['value2', 'value3']}
+{"repository":{"open_issues":0,"url":"https://github.com/}}</t>
+  </si>
+  <si>
+    <t>JSON Schema</t>
+  </si>
+  <si>
+    <t>https://www.json.org/
+https://stackoverflow.com/questions/23110383/how-to-dynamically-build-a-json-object-with-python</t>
+  </si>
+  <si>
     <t>https://searchmicroservices.techtarget.com/definition/RESTful-API
 https://www.jfrog.com/confluence/display/RTF/Artifactory+REST+API
 https://developer.github.com/v3/
 https://confluence.jetbrains.com/display/TCD10/REST+API
-https://stackoverflow.com/questions/630453/put-vs-post-in-rest</t>
-  </si>
-  <si>
-    <t>RESTful API</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>cURL, Python Libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+https://stackoverflow.com/questions/630453/put-vs-post-in-rest
+https://auth0.com/blog/developing-restful-apis-with-python-and-flask/
+https://developers.google.com/maps/documentation/geocoding/intro
+https://developers.soundcloud.com/docs/api/reference#users
+https://api.cloudflare.com/#getting-started-requests
+https://github.com/googlemaps/</t>
   </si>
 </sst>
 </file>
@@ -12907,8 +13135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13189,18 +13417,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="92.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="153.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -13218,126 +13446,165 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="105" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="120" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="121" t="s">
+      <c r="C3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="120" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>358</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>355</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="111"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>360</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="111" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.jfrog.com/confluence/display/RTF/Artifactory+REST+API"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://stackoverflow.com/questions/17301938/making-a-request-to-a-restful-api-using-python"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://www.json.org/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
